--- a/data/dados_01.xlsx
+++ b/data/dados_01.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="105">
   <si>
     <t>TR</t>
   </si>
@@ -242,6 +242,105 @@
   <si>
     <t>*Valor máximo estimado.</t>
   </si>
+  <si>
+    <t>LACTATO</t>
+  </si>
+  <si>
+    <t>AMONIA</t>
+  </si>
+  <si>
+    <t>ACETICO</t>
+  </si>
+  <si>
+    <t>PROPIÔNICO</t>
+  </si>
+  <si>
+    <t>ISOBUT</t>
+  </si>
+  <si>
+    <t>BUTIRICO</t>
+  </si>
+  <si>
+    <t>ISOVAL</t>
+  </si>
+  <si>
+    <t>VALERICO</t>
+  </si>
+  <si>
+    <t>AGV</t>
+  </si>
+  <si>
+    <t>AGCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AGCR</t>
+  </si>
+  <si>
+    <t>AGV% AC</t>
+  </si>
+  <si>
+    <t>AGV% PROP</t>
+  </si>
+  <si>
+    <t>AGV% ISOBUT</t>
+  </si>
+  <si>
+    <t>AGV% BUT</t>
+  </si>
+  <si>
+    <t>AGV% ISOVAL</t>
+  </si>
+  <si>
+    <t>AGV% VAL</t>
+  </si>
+  <si>
+    <t>PUTRS_mg/kg</t>
+  </si>
+  <si>
+    <t>CADAV_mg/kg</t>
+  </si>
+  <si>
+    <t>TIRAM_mg/kg</t>
+  </si>
+  <si>
+    <t>HISTA_mg/kg</t>
+  </si>
+  <si>
+    <t>ESPERM_mg/kg</t>
+  </si>
+  <si>
+    <t>FENILET_mg/kg</t>
+  </si>
+  <si>
+    <t>ESPERMI_mg/kg</t>
+  </si>
+  <si>
+    <t>TRIPTA_mg/kg</t>
+  </si>
+  <si>
+    <t>PUTRS_mg_100</t>
+  </si>
+  <si>
+    <t>CADAV_mg_100</t>
+  </si>
+  <si>
+    <t>TIRAM_mg_100</t>
+  </si>
+  <si>
+    <t>HISTA_mg_100</t>
+  </si>
+  <si>
+    <t>ESPERM_mg_100</t>
+  </si>
+  <si>
+    <t>FENILET_mg_100</t>
+  </si>
+  <si>
+    <t>ESPERMI_mg_100</t>
+  </si>
+  <si>
+    <t>TRIPTA_mg_100</t>
+  </si>
 </sst>
 </file>
 
@@ -278,7 +377,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -333,8 +432,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -425,11 +536,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -515,6 +637,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -822,15 +965,15 @@
         <v>61</v>
       </c>
       <c r="B1" s="35"/>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
@@ -1090,11 +1233,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK57"/>
+  <dimension ref="A1:BJ57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <pane xSplit="1" topLeftCell="AX1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BJ7" sqref="BJ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1116,7 +1259,7 @@
     <col min="29" max="29" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:62" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>17</v>
       </c>
@@ -1204,8 +1347,107 @@
       <c r="AC1" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="AD1" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE1" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF1" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG1" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH1" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ1" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK1" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL1" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO1" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="AP1" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ1" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR1" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS1" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT1" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU1" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV1" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW1" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="AX1" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY1" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ1" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA1" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB1" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="BC1" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD1" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="BE1" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="BF1" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="BG1" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="BH1" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="BI1" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="BJ1" s="42" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="2" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1293,9 +1535,107 @@
       <c r="AC2" s="8">
         <v>6.5</v>
       </c>
-      <c r="AD2" s="32"/>
+      <c r="AD2" s="13">
+        <v>2.5608386967184349</v>
+      </c>
+      <c r="AE2" s="32">
+        <v>218.95388168331897</v>
+      </c>
+      <c r="AF2" s="32">
+        <v>158.40206485976148</v>
+      </c>
+      <c r="AG2" s="32">
+        <v>71.272577405935678</v>
+      </c>
+      <c r="AH2" s="32">
+        <v>13.690599159945023</v>
+      </c>
+      <c r="AI2" s="32">
+        <v>32.570642580212088</v>
+      </c>
+      <c r="AJ2" s="32">
+        <v>13.808306909566063</v>
+      </c>
+      <c r="AK2" s="32">
+        <v>25.646495428663968</v>
+      </c>
+      <c r="AL2" s="32">
+        <v>315.39068634408432</v>
+      </c>
+      <c r="AM2" s="32">
+        <v>243.36524142564215</v>
+      </c>
+      <c r="AN2" s="32">
+        <v>72.025444918442119</v>
+      </c>
+      <c r="AO2" s="32">
+        <v>50.224078172983305</v>
+      </c>
+      <c r="AP2" s="32">
+        <v>22.598187103147005</v>
+      </c>
+      <c r="AQ2" s="32">
+        <v>4.3408381264020202</v>
+      </c>
+      <c r="AR2" s="32">
+        <v>10.327078125787846</v>
+      </c>
+      <c r="AS2" s="32">
+        <v>4.3781593773829783</v>
+      </c>
+      <c r="AT2" s="32">
+        <v>8.1316590942968432</v>
+      </c>
+      <c r="AU2" s="32">
+        <v>222.69</v>
+      </c>
+      <c r="AV2" s="32">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="32">
+        <v>51.53</v>
+      </c>
+      <c r="AX2" s="32">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="32">
+        <v>60.94</v>
+      </c>
+      <c r="AZ2" s="32">
+        <v>18.16</v>
+      </c>
+      <c r="BA2" s="32">
+        <v>22.47</v>
+      </c>
+      <c r="BB2" s="32">
+        <v>57.24</v>
+      </c>
+      <c r="BC2" s="43">
+        <v>51.730342927270314</v>
+      </c>
+      <c r="BD2" s="43">
+        <v>0</v>
+      </c>
+      <c r="BE2" s="43">
+        <v>11.970293102708874</v>
+      </c>
+      <c r="BF2" s="43">
+        <v>0</v>
+      </c>
+      <c r="BG2" s="43">
+        <v>14.156213112343856</v>
+      </c>
+      <c r="BH2" s="43">
+        <v>4.2185236317716512</v>
+      </c>
+      <c r="BI2" s="43">
+        <v>5.2197261016469714</v>
+      </c>
+      <c r="BJ2" s="43">
+        <v>13.296712152126064</v>
+      </c>
     </row>
-    <row r="3" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:62" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>20</v>
       </c>
@@ -1383,9 +1723,107 @@
       <c r="AC3" s="8">
         <v>6.7533333333333339</v>
       </c>
-      <c r="AD3" s="32"/>
+      <c r="AD3" s="13">
+        <v>2.686537235844908</v>
+      </c>
+      <c r="AE3" s="32">
+        <v>181.5043403527346</v>
+      </c>
+      <c r="AF3" s="32">
+        <v>90.716899234764</v>
+      </c>
+      <c r="AG3" s="32">
+        <v>47.938181932856345</v>
+      </c>
+      <c r="AH3" s="32">
+        <v>15.37673519892523</v>
+      </c>
+      <c r="AI3" s="32">
+        <v>30.131294592744684</v>
+      </c>
+      <c r="AJ3" s="32">
+        <v>16.277357592663023</v>
+      </c>
+      <c r="AK3" s="32">
+        <v>17.921786574322329</v>
+      </c>
+      <c r="AL3" s="32">
+        <v>218.36225512627561</v>
+      </c>
+      <c r="AM3" s="32">
+        <v>154.03181636654554</v>
+      </c>
+      <c r="AN3" s="32">
+        <v>64.330438759730043</v>
+      </c>
+      <c r="AO3" s="32">
+        <v>41.544221634047418</v>
+      </c>
+      <c r="AP3" s="32">
+        <v>21.953511107097889</v>
+      </c>
+      <c r="AQ3" s="32">
+        <v>7.0418466735622856</v>
+      </c>
+      <c r="AR3" s="32">
+        <v>13.798765072892387</v>
+      </c>
+      <c r="AS3" s="32">
+        <v>7.4542908449310854</v>
+      </c>
+      <c r="AT3" s="32">
+        <v>8.2073646674689407</v>
+      </c>
+      <c r="AU3" s="32">
+        <v>99.38</v>
+      </c>
+      <c r="AV3" s="32">
+        <v>20.16</v>
+      </c>
+      <c r="AW3" s="32">
+        <v>28.23</v>
+      </c>
+      <c r="AX3" s="32">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="32">
+        <v>75.239999999999995</v>
+      </c>
+      <c r="AZ3" s="32">
+        <v>3.89</v>
+      </c>
+      <c r="BA3" s="32">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="32">
+        <v>4.29</v>
+      </c>
+      <c r="BC3" s="43">
+        <v>21.868039478563787</v>
+      </c>
+      <c r="BD3" s="43">
+        <v>4.4361005824898978</v>
+      </c>
+      <c r="BE3" s="43">
+        <v>6.211861083516359</v>
+      </c>
+      <c r="BF3" s="43">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="43">
+        <v>16.556161102506938</v>
+      </c>
+      <c r="BH3" s="43">
+        <v>0.85597377310940981</v>
+      </c>
+      <c r="BI3" s="43">
+        <v>0</v>
+      </c>
+      <c r="BJ3" s="43">
+        <v>0.94399164180960626</v>
+      </c>
     </row>
-    <row r="4" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:62" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>21</v>
       </c>
@@ -1473,9 +1911,107 @@
       <c r="AC4" s="8">
         <v>6.5799999999999992</v>
       </c>
-      <c r="AD4" s="32"/>
+      <c r="AD4" s="13">
+        <v>3.2696748363463235</v>
+      </c>
+      <c r="AE4" s="32">
+        <v>241.58557814940383</v>
+      </c>
+      <c r="AF4" s="32">
+        <v>239.65044028230832</v>
+      </c>
+      <c r="AG4" s="32">
+        <v>29.873135365959484</v>
+      </c>
+      <c r="AH4" s="32">
+        <v>13.533837793344448</v>
+      </c>
+      <c r="AI4" s="32">
+        <v>19.680849393062459</v>
+      </c>
+      <c r="AJ4" s="32">
+        <v>13.198528106822716</v>
+      </c>
+      <c r="AK4" s="32">
+        <v>16.003858183393632</v>
+      </c>
+      <c r="AL4" s="32">
+        <v>331.94064912489102</v>
+      </c>
+      <c r="AM4" s="32">
+        <v>283.05741344161225</v>
+      </c>
+      <c r="AN4" s="32">
+        <v>48.883235683278805</v>
+      </c>
+      <c r="AO4" s="32">
+        <v>72.196774005867852</v>
+      </c>
+      <c r="AP4" s="32">
+        <v>8.9995411663847964</v>
+      </c>
+      <c r="AQ4" s="32">
+        <v>4.0771860358242566</v>
+      </c>
+      <c r="AR4" s="32">
+        <v>5.9290266030833836</v>
+      </c>
+      <c r="AS4" s="32">
+        <v>3.9761710840834188</v>
+      </c>
+      <c r="AT4" s="32">
+        <v>4.8213011047563077</v>
+      </c>
+      <c r="AU4" s="32">
+        <v>227.14</v>
+      </c>
+      <c r="AV4" s="32">
+        <v>43.62</v>
+      </c>
+      <c r="AW4" s="32">
+        <v>15.46</v>
+      </c>
+      <c r="AX4" s="32">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="32">
+        <v>45.9</v>
+      </c>
+      <c r="AZ4" s="32">
+        <v>3.09</v>
+      </c>
+      <c r="BA4" s="32">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="32">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="43">
+        <v>52.276351511299545</v>
+      </c>
+      <c r="BD4" s="43">
+        <v>10.03915846140216</v>
+      </c>
+      <c r="BE4" s="43">
+        <v>3.5581244799009033</v>
+      </c>
+      <c r="BF4" s="43">
+        <v>0</v>
+      </c>
+      <c r="BG4" s="43">
+        <v>10.563901269563482</v>
+      </c>
+      <c r="BH4" s="43">
+        <v>0.71116459527126707</v>
+      </c>
+      <c r="BI4" s="43">
+        <v>0</v>
+      </c>
+      <c r="BJ4" s="43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:62" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>22</v>
       </c>
@@ -1563,9 +2099,107 @@
       <c r="AC5" s="8">
         <v>7.2566666666666668</v>
       </c>
-      <c r="AD5" s="32"/>
+      <c r="AD5" s="13">
+        <v>2.3749130747424996</v>
+      </c>
+      <c r="AE5" s="32">
+        <v>127.28501634725323</v>
+      </c>
+      <c r="AF5" s="32">
+        <v>160.92840671787528</v>
+      </c>
+      <c r="AG5" s="32">
+        <v>62.453434778633749</v>
+      </c>
+      <c r="AH5" s="32">
+        <v>14.747915472592201</v>
+      </c>
+      <c r="AI5" s="32">
+        <v>26.592422667870579</v>
+      </c>
+      <c r="AJ5" s="32">
+        <v>13.184007691310217</v>
+      </c>
+      <c r="AK5" s="32">
+        <v>16.230578909534493</v>
+      </c>
+      <c r="AL5" s="32">
+        <v>294.13676623781652</v>
+      </c>
+      <c r="AM5" s="32">
+        <v>238.12975696910124</v>
+      </c>
+      <c r="AN5" s="32">
+        <v>56.007009268715287</v>
+      </c>
+      <c r="AO5" s="32">
+        <v>54.712101712494132</v>
+      </c>
+      <c r="AP5" s="32">
+        <v>21.232787582949992</v>
+      </c>
+      <c r="AQ5" s="32">
+        <v>5.013965326819485</v>
+      </c>
+      <c r="AR5" s="32">
+        <v>9.0408360056457475</v>
+      </c>
+      <c r="AS5" s="32">
+        <v>4.4822712440683583</v>
+      </c>
+      <c r="AT5" s="32">
+        <v>5.5180381280222841</v>
+      </c>
+      <c r="AU5" s="32">
+        <v>100.38</v>
+      </c>
+      <c r="AV5" s="32">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="32">
+        <v>13.26</v>
+      </c>
+      <c r="AX5" s="32">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="32">
+        <v>76.38</v>
+      </c>
+      <c r="AZ5" s="32">
+        <v>8.67</v>
+      </c>
+      <c r="BA5" s="32">
+        <v>53.93</v>
+      </c>
+      <c r="BB5" s="32">
+        <v>20.5</v>
+      </c>
+      <c r="BC5" s="43">
+        <v>21.459372352867621</v>
+      </c>
+      <c r="BD5" s="43">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="43">
+        <v>2.834740759105645</v>
+      </c>
+      <c r="BF5" s="43">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="43">
+        <v>16.328619847699031</v>
+      </c>
+      <c r="BH5" s="43">
+        <v>1.853484342492153</v>
+      </c>
+      <c r="BI5" s="43">
+        <v>11.529228441822582</v>
+      </c>
+      <c r="BJ5" s="43">
+        <v>4.3825177648315039</v>
+      </c>
     </row>
-    <row r="6" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:62" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>23</v>
       </c>
@@ -1653,9 +2287,107 @@
       <c r="AC6" s="8">
         <v>6.6499999999999995</v>
       </c>
-      <c r="AD6" s="32"/>
+      <c r="AD6" s="13">
+        <v>3.7595213003906776</v>
+      </c>
+      <c r="AE6" s="32">
+        <v>266.28813795713012</v>
+      </c>
+      <c r="AF6" s="32">
+        <v>175.07161328183813</v>
+      </c>
+      <c r="AG6" s="32">
+        <v>62.25264670132006</v>
+      </c>
+      <c r="AH6" s="32">
+        <v>18.488333057395607</v>
+      </c>
+      <c r="AI6" s="32">
+        <v>36.425550906418785</v>
+      </c>
+      <c r="AJ6" s="32">
+        <v>14.655681017509806</v>
+      </c>
+      <c r="AK6" s="32">
+        <v>22.469597617467493</v>
+      </c>
+      <c r="AL6" s="32">
+        <v>329.36342258194981</v>
+      </c>
+      <c r="AM6" s="32">
+        <v>255.81259304055376</v>
+      </c>
+      <c r="AN6" s="32">
+        <v>73.550829541396084</v>
+      </c>
+      <c r="AO6" s="32">
+        <v>53.154540327949761</v>
+      </c>
+      <c r="AP6" s="32">
+        <v>18.900898652712662</v>
+      </c>
+      <c r="AQ6" s="32">
+        <v>5.6133534539025733</v>
+      </c>
+      <c r="AR6" s="32">
+        <v>11.05937952091679</v>
+      </c>
+      <c r="AS6" s="32">
+        <v>4.4496990293034999</v>
+      </c>
+      <c r="AT6" s="32">
+        <v>6.8221290152147276</v>
+      </c>
+      <c r="AU6" s="32">
+        <v>149.69999999999999</v>
+      </c>
+      <c r="AV6" s="32">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="32">
+        <v>41.72</v>
+      </c>
+      <c r="AX6" s="32">
+        <v>2.44</v>
+      </c>
+      <c r="AY6" s="32">
+        <v>63.89</v>
+      </c>
+      <c r="AZ6" s="32">
+        <v>34.47</v>
+      </c>
+      <c r="BA6" s="32">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="BB6" s="32">
+        <v>16.84</v>
+      </c>
+      <c r="BC6" s="43">
+        <v>34.38244469918132</v>
+      </c>
+      <c r="BD6" s="43">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="43">
+        <v>9.582068088509315</v>
+      </c>
+      <c r="BF6" s="43">
+        <v>0.56040858427523321</v>
+      </c>
+      <c r="BG6" s="43">
+        <v>14.673977233337972</v>
+      </c>
+      <c r="BH6" s="43">
+        <v>7.9169196311341352</v>
+      </c>
+      <c r="BI6" s="43">
+        <v>15.824652236296547</v>
+      </c>
+      <c r="BJ6" s="43">
+        <v>3.8677379340962821</v>
+      </c>
     </row>
-    <row r="7" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:62" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>18</v>
       </c>
@@ -1743,9 +2475,107 @@
       <c r="AC7" s="8">
         <v>6.7666666666666666</v>
       </c>
-      <c r="AD7" s="32"/>
+      <c r="AD7" s="13">
+        <v>2.3137590687473768</v>
+      </c>
+      <c r="AE7" s="32">
+        <v>215.01828722027244</v>
+      </c>
+      <c r="AF7" s="32">
+        <v>186.61463369696216</v>
+      </c>
+      <c r="AG7" s="32">
+        <v>72.996078966165086</v>
+      </c>
+      <c r="AH7" s="32">
+        <v>19.858312813515425</v>
+      </c>
+      <c r="AI7" s="32">
+        <v>57.983597371494362</v>
+      </c>
+      <c r="AJ7" s="32">
+        <v>21.953294001744716</v>
+      </c>
+      <c r="AK7" s="32">
+        <v>41.672561886365806</v>
+      </c>
+      <c r="AL7" s="32">
+        <v>401.07847873624758</v>
+      </c>
+      <c r="AM7" s="32">
+        <v>279.46902547664268</v>
+      </c>
+      <c r="AN7" s="32">
+        <v>121.60945325960489</v>
+      </c>
+      <c r="AO7" s="32">
+        <v>46.528209213559286</v>
+      </c>
+      <c r="AP7" s="32">
+        <v>18.199949096288432</v>
+      </c>
+      <c r="AQ7" s="32">
+        <v>4.9512287161571722</v>
+      </c>
+      <c r="AR7" s="32">
+        <v>14.456920639121313</v>
+      </c>
+      <c r="AS7" s="32">
+        <v>5.4735656899161071</v>
+      </c>
+      <c r="AT7" s="32">
+        <v>10.390126644957684</v>
+      </c>
+      <c r="AU7" s="32">
+        <v>152.26</v>
+      </c>
+      <c r="AV7" s="32">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="AW7" s="32">
+        <v>5.6</v>
+      </c>
+      <c r="AX7" s="32">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AY7" s="32">
+        <v>90.62</v>
+      </c>
+      <c r="AZ7" s="32">
+        <v>4.28</v>
+      </c>
+      <c r="BA7" s="32">
+        <v>20.2</v>
+      </c>
+      <c r="BB7" s="32">
+        <v>18.22</v>
+      </c>
+      <c r="BC7" s="43">
+        <v>34.003228926216394</v>
+      </c>
+      <c r="BD7" s="43">
+        <v>0.48684512714535499</v>
+      </c>
+      <c r="BE7" s="43">
+        <v>1.250611335786233</v>
+      </c>
+      <c r="BF7" s="43">
+        <v>0.98262319240346885</v>
+      </c>
+      <c r="BG7" s="43">
+        <v>20.23757129445508</v>
+      </c>
+      <c r="BH7" s="43">
+        <v>0.95582437806519238</v>
+      </c>
+      <c r="BI7" s="43">
+        <v>4.511133746943198</v>
+      </c>
+      <c r="BJ7" s="43">
+        <v>4.0689533103616373</v>
+      </c>
     </row>
-    <row r="8" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:62" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>24</v>
       </c>
@@ -1833,9 +2663,107 @@
       <c r="AC8" s="8">
         <v>7.08</v>
       </c>
-      <c r="AD8" s="32"/>
+      <c r="AD8" s="13">
+        <v>3.1327505706274263</v>
+      </c>
+      <c r="AE8" s="32">
+        <v>130.77346508607187</v>
+      </c>
+      <c r="AF8" s="32">
+        <v>171.82595531360886</v>
+      </c>
+      <c r="AG8" s="32">
+        <v>62.205737038624022</v>
+      </c>
+      <c r="AH8" s="32">
+        <v>14.10638409855523</v>
+      </c>
+      <c r="AI8" s="32">
+        <v>40.416718460545297</v>
+      </c>
+      <c r="AJ8" s="32">
+        <v>15.90758948224461</v>
+      </c>
+      <c r="AK8" s="32">
+        <v>23.960648368412112</v>
+      </c>
+      <c r="AL8" s="32">
+        <v>328.42303276199016</v>
+      </c>
+      <c r="AM8" s="32">
+        <v>248.13807645078808</v>
+      </c>
+      <c r="AN8" s="32">
+        <v>80.284956311202038</v>
+      </c>
+      <c r="AO8" s="32">
+        <v>52.318485055258598</v>
+      </c>
+      <c r="AP8" s="32">
+        <v>18.940735220512025</v>
+      </c>
+      <c r="AQ8" s="32">
+        <v>4.2951872102034319</v>
+      </c>
+      <c r="AR8" s="32">
+        <v>12.306298410512365</v>
+      </c>
+      <c r="AS8" s="32">
+        <v>4.8436278504781116</v>
+      </c>
+      <c r="AT8" s="32">
+        <v>7.2956662530354608</v>
+      </c>
+      <c r="AU8" s="32">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="32">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="32">
+        <v>42.14</v>
+      </c>
+      <c r="AX8" s="32">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="32">
+        <v>228.8</v>
+      </c>
+      <c r="AZ8" s="32">
+        <v>13.55</v>
+      </c>
+      <c r="BA8" s="32">
+        <v>285.29000000000002</v>
+      </c>
+      <c r="BB8" s="32">
+        <v>28.97</v>
+      </c>
+      <c r="BC8" s="43">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="43">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="43">
+        <v>7.9312778150518435</v>
+      </c>
+      <c r="BF8" s="43">
+        <v>0</v>
+      </c>
+      <c r="BG8" s="43">
+        <v>43.06303664176226</v>
+      </c>
+      <c r="BH8" s="43">
+        <v>2.5502803605589106</v>
+      </c>
+      <c r="BI8" s="43">
+        <v>53.695164875560998</v>
+      </c>
+      <c r="BJ8" s="43">
+        <v>5.4525182321322232</v>
+      </c>
     </row>
-    <row r="9" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:62" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>25</v>
       </c>
@@ -1923,9 +2851,107 @@
       <c r="AC9" s="8">
         <v>6.753333333333333</v>
       </c>
-      <c r="AD9" s="32"/>
+      <c r="AD9" s="13">
+        <v>2.1870566034675516</v>
+      </c>
+      <c r="AE9" s="32">
+        <v>179.74166318756502</v>
+      </c>
+      <c r="AF9" s="32">
+        <v>114.04856892660722</v>
+      </c>
+      <c r="AG9" s="32">
+        <v>40.239548942614263</v>
+      </c>
+      <c r="AH9" s="32">
+        <v>13.9883991267518</v>
+      </c>
+      <c r="AI9" s="32">
+        <v>31.375645991623198</v>
+      </c>
+      <c r="AJ9" s="32">
+        <v>22.560998682987446</v>
+      </c>
+      <c r="AK9" s="32">
+        <v>21.428663742704874</v>
+      </c>
+      <c r="AL9" s="32">
+        <v>243.64182541328881</v>
+      </c>
+      <c r="AM9" s="32">
+        <v>168.27651699597325</v>
+      </c>
+      <c r="AN9" s="32">
+        <v>75.365308417315504</v>
+      </c>
+      <c r="AO9" s="32">
+        <v>46.809930410407581</v>
+      </c>
+      <c r="AP9" s="32">
+        <v>16.515862526623273</v>
+      </c>
+      <c r="AQ9" s="32">
+        <v>5.7413783955293081</v>
+      </c>
+      <c r="AR9" s="32">
+        <v>12.877774962652982</v>
+      </c>
+      <c r="AS9" s="32">
+        <v>9.2599038136072487</v>
+      </c>
+      <c r="AT9" s="32">
+        <v>8.7951498911796051</v>
+      </c>
+      <c r="AU9" s="32">
+        <v>140.13999999999999</v>
+      </c>
+      <c r="AV9" s="32">
+        <v>2.29</v>
+      </c>
+      <c r="AW9" s="32">
+        <v>12.86</v>
+      </c>
+      <c r="AX9" s="32">
+        <v>5.3</v>
+      </c>
+      <c r="AY9" s="32">
+        <v>92.74</v>
+      </c>
+      <c r="AZ9" s="32">
+        <v>10.16</v>
+      </c>
+      <c r="BA9" s="32">
+        <v>74.349999999999994</v>
+      </c>
+      <c r="BB9" s="32">
+        <v>29.42</v>
+      </c>
+      <c r="BC9" s="43">
+        <v>27.205109083253657</v>
+      </c>
+      <c r="BD9" s="43">
+        <v>0.4445533024165183</v>
+      </c>
+      <c r="BE9" s="43">
+        <v>2.496487104400186</v>
+      </c>
+      <c r="BF9" s="43">
+        <v>1.0288788221867018</v>
+      </c>
+      <c r="BG9" s="43">
+        <v>18.0034381074707</v>
+      </c>
+      <c r="BH9" s="43">
+        <v>1.9723412893239416</v>
+      </c>
+      <c r="BI9" s="43">
+        <v>14.433422722562504</v>
+      </c>
+      <c r="BJ9" s="43">
+        <v>5.7112481035344844</v>
+      </c>
     </row>
-    <row r="10" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:62" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>25</v>
       </c>
@@ -2013,16 +3039,107 @@
       <c r="AC10" s="32">
         <v>6.75</v>
       </c>
-      <c r="AD10" s="32"/>
-      <c r="AE10" s="31"/>
-      <c r="AF10" s="31"/>
-      <c r="AG10" s="31"/>
-      <c r="AH10" s="31"/>
-      <c r="AI10" s="31"/>
-      <c r="AJ10" s="31"/>
-      <c r="AK10" s="31"/>
+      <c r="AD10" s="13">
+        <v>3.1047582687173376</v>
+      </c>
+      <c r="AE10" s="32">
+        <v>172.59860350065514</v>
+      </c>
+      <c r="AF10" s="32">
+        <v>180.04795277611669</v>
+      </c>
+      <c r="AG10" s="32">
+        <v>79.62494908952354</v>
+      </c>
+      <c r="AH10" s="32">
+        <v>20.624418223005456</v>
+      </c>
+      <c r="AI10" s="32">
+        <v>35.550659650503761</v>
+      </c>
+      <c r="AJ10" s="32">
+        <v>13.890040848454225</v>
+      </c>
+      <c r="AK10" s="32">
+        <v>23.24350432260044</v>
+      </c>
+      <c r="AL10" s="32">
+        <v>352.98152491020409</v>
+      </c>
+      <c r="AM10" s="32">
+        <v>280.29732008864562</v>
+      </c>
+      <c r="AN10" s="32">
+        <v>72.684204821558424</v>
+      </c>
+      <c r="AO10" s="32">
+        <v>51.007755383775276</v>
+      </c>
+      <c r="AP10" s="32">
+        <v>22.557823418599472</v>
+      </c>
+      <c r="AQ10" s="32">
+        <v>5.8429171975083269</v>
+      </c>
+      <c r="AR10" s="32">
+        <v>10.071535517205211</v>
+      </c>
+      <c r="AS10" s="32">
+        <v>3.9350617151953631</v>
+      </c>
+      <c r="AT10" s="32">
+        <v>6.58490676771636</v>
+      </c>
+      <c r="AU10" s="32">
+        <v>159.47</v>
+      </c>
+      <c r="AV10" s="32">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="AW10" s="32">
+        <v>15.2</v>
+      </c>
+      <c r="AX10" s="32">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="32">
+        <v>61.76</v>
+      </c>
+      <c r="AZ10" s="32">
+        <v>4.83</v>
+      </c>
+      <c r="BA10" s="32">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="32">
+        <v>20.52</v>
+      </c>
+      <c r="BC10" s="43">
+        <v>30.692231065529935</v>
+      </c>
+      <c r="BD10" s="43">
+        <v>14.126856212515818</v>
+      </c>
+      <c r="BE10" s="43">
+        <v>2.9254525126735751</v>
+      </c>
+      <c r="BF10" s="43">
+        <v>0</v>
+      </c>
+      <c r="BG10" s="43">
+        <v>11.886575472547367</v>
+      </c>
+      <c r="BH10" s="43">
+        <v>0.92960102869824779</v>
+      </c>
+      <c r="BI10" s="43">
+        <v>0</v>
+      </c>
+      <c r="BJ10" s="43">
+        <v>3.9493608921093264</v>
+      </c>
     </row>
-    <row r="11" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:62" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>26</v>
       </c>
@@ -2110,16 +3227,107 @@
       <c r="AC11" s="8">
         <v>7.02</v>
       </c>
-      <c r="AD11" s="32"/>
-      <c r="AE11" s="31"/>
-      <c r="AF11" s="31"/>
-      <c r="AG11" s="31"/>
-      <c r="AH11" s="31"/>
-      <c r="AI11" s="31"/>
-      <c r="AJ11" s="31"/>
-      <c r="AK11" s="31"/>
+      <c r="AD11" s="13">
+        <v>3.6658877645750851</v>
+      </c>
+      <c r="AE11" s="32">
+        <v>166.85909403193739</v>
+      </c>
+      <c r="AF11" s="32">
+        <v>112.15931204480783</v>
+      </c>
+      <c r="AG11" s="32">
+        <v>36.662986949627197</v>
+      </c>
+      <c r="AH11" s="32">
+        <v>14.928914842829867</v>
+      </c>
+      <c r="AI11" s="32">
+        <v>20.337811072212798</v>
+      </c>
+      <c r="AJ11" s="32">
+        <v>17.401842697666776</v>
+      </c>
+      <c r="AK11" s="32">
+        <v>16.32371484410389</v>
+      </c>
+      <c r="AL11" s="32">
+        <v>217.81458245124838</v>
+      </c>
+      <c r="AM11" s="32">
+        <v>163.75121383726488</v>
+      </c>
+      <c r="AN11" s="32">
+        <v>54.063368613983464</v>
+      </c>
+      <c r="AO11" s="32">
+        <v>51.493022543571669</v>
+      </c>
+      <c r="AP11" s="32">
+        <v>16.832200368326198</v>
+      </c>
+      <c r="AQ11" s="32">
+        <v>6.8539556327323865</v>
+      </c>
+      <c r="AR11" s="32">
+        <v>9.3372127996824279</v>
+      </c>
+      <c r="AS11" s="32">
+        <v>7.9892918563254067</v>
+      </c>
+      <c r="AT11" s="32">
+        <v>7.4943167993619024</v>
+      </c>
+      <c r="AU11" s="32">
+        <v>56.79</v>
+      </c>
+      <c r="AV11" s="32">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="AW11" s="32">
+        <v>5.57</v>
+      </c>
+      <c r="AX11" s="32">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="32">
+        <v>56.36</v>
+      </c>
+      <c r="AZ11" s="32">
+        <v>1.07</v>
+      </c>
+      <c r="BA11" s="32">
+        <v>25.08</v>
+      </c>
+      <c r="BB11" s="32">
+        <v>7.32</v>
+      </c>
+      <c r="BC11" s="43">
+        <v>12.682866958692962</v>
+      </c>
+      <c r="BD11" s="43">
+        <v>2.2824247282592371</v>
+      </c>
+      <c r="BE11" s="43">
+        <v>1.2439438098242614</v>
+      </c>
+      <c r="BF11" s="43">
+        <v>0</v>
+      </c>
+      <c r="BG11" s="43">
+        <v>12.586835389891448</v>
+      </c>
+      <c r="BH11" s="43">
+        <v>0.23896227585492991</v>
+      </c>
+      <c r="BI11" s="43">
+        <v>5.6010970826557402</v>
+      </c>
+      <c r="BJ11" s="43">
+        <v>1.6347699619234457</v>
+      </c>
     </row>
-    <row r="12" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:62" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>27</v>
       </c>
@@ -2207,16 +3415,107 @@
       <c r="AC12" s="8">
         <v>6.7166666666666659</v>
       </c>
-      <c r="AD12" s="32"/>
-      <c r="AE12" s="31"/>
-      <c r="AF12" s="31"/>
-      <c r="AG12" s="31"/>
-      <c r="AH12" s="31"/>
-      <c r="AI12" s="31"/>
-      <c r="AJ12" s="31"/>
-      <c r="AK12" s="31"/>
+      <c r="AD12" s="13">
+        <v>3.6628291459803561</v>
+      </c>
+      <c r="AE12" s="32">
+        <v>219.73505345086176</v>
+      </c>
+      <c r="AF12" s="32">
+        <v>159.1017407149283</v>
+      </c>
+      <c r="AG12" s="32">
+        <v>100.02399556590814</v>
+      </c>
+      <c r="AH12" s="32">
+        <v>17.528608382758261</v>
+      </c>
+      <c r="AI12" s="32">
+        <v>55.770731328557346</v>
+      </c>
+      <c r="AJ12" s="32">
+        <v>24.294772875543089</v>
+      </c>
+      <c r="AK12" s="32">
+        <v>38.203657260976783</v>
+      </c>
+      <c r="AL12" s="32">
+        <v>394.92350612867187</v>
+      </c>
+      <c r="AM12" s="32">
+        <v>276.65434466359466</v>
+      </c>
+      <c r="AN12" s="32">
+        <v>118.26916146507722</v>
+      </c>
+      <c r="AO12" s="32">
+        <v>40.286723440333937</v>
+      </c>
+      <c r="AP12" s="32">
+        <v>25.32743531688358</v>
+      </c>
+      <c r="AQ12" s="32">
+        <v>4.4384819112405998</v>
+      </c>
+      <c r="AR12" s="32">
+        <v>14.121907271426489</v>
+      </c>
+      <c r="AS12" s="32">
+        <v>6.1517667341957347</v>
+      </c>
+      <c r="AT12" s="32">
+        <v>9.6736853259196653</v>
+      </c>
+      <c r="AU12" s="32">
+        <v>144.06</v>
+      </c>
+      <c r="AV12" s="32">
+        <v>23.54</v>
+      </c>
+      <c r="AW12" s="32">
+        <v>21.16</v>
+      </c>
+      <c r="AX12" s="32">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="32">
+        <v>64.459999999999994</v>
+      </c>
+      <c r="AZ12" s="32">
+        <v>7.38</v>
+      </c>
+      <c r="BA12" s="32">
+        <v>25.64</v>
+      </c>
+      <c r="BB12" s="32">
+        <v>14.14</v>
+      </c>
+      <c r="BC12" s="43">
+        <v>34.95679012019454</v>
+      </c>
+      <c r="BD12" s="43">
+        <v>5.7120841276508356</v>
+      </c>
+      <c r="BE12" s="43">
+        <v>5.1345667009809564</v>
+      </c>
+      <c r="BF12" s="43">
+        <v>0</v>
+      </c>
+      <c r="BG12" s="43">
+        <v>15.641501396277523</v>
+      </c>
+      <c r="BH12" s="43">
+        <v>1.7907893314385375</v>
+      </c>
+      <c r="BI12" s="43">
+        <v>6.2216583276536728</v>
+      </c>
+      <c r="BJ12" s="43">
+        <v>3.4311329466857616</v>
+      </c>
     </row>
-    <row r="13" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:62" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>28</v>
       </c>
@@ -2304,16 +3603,107 @@
       <c r="AC13" s="8">
         <v>6.7966666666666669</v>
       </c>
-      <c r="AD13" s="32"/>
-      <c r="AE13" s="31"/>
-      <c r="AF13" s="31"/>
-      <c r="AG13" s="31"/>
-      <c r="AH13" s="31"/>
-      <c r="AI13" s="31"/>
-      <c r="AJ13" s="31"/>
-      <c r="AK13" s="31"/>
+      <c r="AD13" s="13">
+        <v>2.6004192588258683</v>
+      </c>
+      <c r="AE13" s="32">
+        <v>180.78305151662647</v>
+      </c>
+      <c r="AF13" s="32">
+        <v>195.69113313874004</v>
+      </c>
+      <c r="AG13" s="32">
+        <v>91.632033023692088</v>
+      </c>
+      <c r="AH13" s="32">
+        <v>15.826517750021535</v>
+      </c>
+      <c r="AI13" s="32">
+        <v>53.703521023965372</v>
+      </c>
+      <c r="AJ13" s="32">
+        <v>15.324275968024748</v>
+      </c>
+      <c r="AK13" s="32">
+        <v>30.855489181692526</v>
+      </c>
+      <c r="AL13" s="32">
+        <v>403.03297008613634</v>
+      </c>
+      <c r="AM13" s="32">
+        <v>303.14968391245367</v>
+      </c>
+      <c r="AN13" s="32">
+        <v>99.883286173682649</v>
+      </c>
+      <c r="AO13" s="32">
+        <v>48.554621498314859</v>
+      </c>
+      <c r="AP13" s="32">
+        <v>22.735617139240112</v>
+      </c>
+      <c r="AQ13" s="32">
+        <v>3.926854358004281</v>
+      </c>
+      <c r="AR13" s="32">
+        <v>13.324845610642681</v>
+      </c>
+      <c r="AS13" s="32">
+        <v>3.8022388006493957</v>
+      </c>
+      <c r="AT13" s="32">
+        <v>7.655822593148665</v>
+      </c>
+      <c r="AU13" s="32">
+        <v>192.52</v>
+      </c>
+      <c r="AV13" s="32">
+        <v>4.75</v>
+      </c>
+      <c r="AW13" s="32">
+        <v>10.28</v>
+      </c>
+      <c r="AX13" s="32">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="32">
+        <v>56.6</v>
+      </c>
+      <c r="AZ13" s="32">
+        <v>6.01</v>
+      </c>
+      <c r="BA13" s="32">
+        <v>7.91</v>
+      </c>
+      <c r="BB13" s="32">
+        <v>20.58</v>
+      </c>
+      <c r="BC13" s="43">
+        <v>42.292195618470217</v>
+      </c>
+      <c r="BD13" s="43">
+        <v>1.0434652461444709</v>
+      </c>
+      <c r="BE13" s="43">
+        <v>2.2582784695505604</v>
+      </c>
+      <c r="BF13" s="43">
+        <v>0</v>
+      </c>
+      <c r="BG13" s="43">
+        <v>12.433712196163592</v>
+      </c>
+      <c r="BH13" s="43">
+        <v>1.3202581324901621</v>
+      </c>
+      <c r="BI13" s="43">
+        <v>1.7376442309479507</v>
+      </c>
+      <c r="BJ13" s="43">
+        <v>4.5209504769796238</v>
+      </c>
     </row>
-    <row r="14" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:62" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>29</v>
       </c>
@@ -2401,16 +3791,107 @@
       <c r="AC14" s="8">
         <v>6.6733333333333329</v>
       </c>
-      <c r="AD14" s="32"/>
-      <c r="AE14" s="32"/>
-      <c r="AF14" s="32"/>
-      <c r="AG14" s="32"/>
-      <c r="AH14" s="31"/>
-      <c r="AI14" s="31"/>
-      <c r="AJ14" s="31"/>
-      <c r="AK14" s="31"/>
+      <c r="AD14" s="13">
+        <v>2.7100054235030719</v>
+      </c>
+      <c r="AE14" s="32">
+        <v>215.39453577649482</v>
+      </c>
+      <c r="AF14" s="32">
+        <v>257.96378705224072</v>
+      </c>
+      <c r="AG14" s="32">
+        <v>82.555718588063399</v>
+      </c>
+      <c r="AH14" s="32">
+        <v>42.908066001535744</v>
+      </c>
+      <c r="AI14" s="32">
+        <v>20.082808759369772</v>
+      </c>
+      <c r="AJ14" s="32">
+        <v>25.701603004736217</v>
+      </c>
+      <c r="AK14" s="32">
+        <v>23.026172428132245</v>
+      </c>
+      <c r="AL14" s="32">
+        <v>452.2381558340781</v>
+      </c>
+      <c r="AM14" s="32">
+        <v>383.4275716418399</v>
+      </c>
+      <c r="AN14" s="32">
+        <v>68.810584192238224</v>
+      </c>
+      <c r="AO14" s="32">
+        <v>57.041579469664477</v>
+      </c>
+      <c r="AP14" s="32">
+        <v>18.254921112483995</v>
+      </c>
+      <c r="AQ14" s="32">
+        <v>9.4879358249634969</v>
+      </c>
+      <c r="AR14" s="32">
+        <v>4.4407594760177567</v>
+      </c>
+      <c r="AS14" s="32">
+        <v>5.6832009137605564</v>
+      </c>
+      <c r="AT14" s="32">
+        <v>5.0916032031097194</v>
+      </c>
+      <c r="AU14" s="32">
+        <v>156.32</v>
+      </c>
+      <c r="AV14" s="32">
+        <v>13.43</v>
+      </c>
+      <c r="AW14" s="32">
+        <v>11.26</v>
+      </c>
+      <c r="AX14" s="32">
+        <v>2.41</v>
+      </c>
+      <c r="AY14" s="32">
+        <v>55.56</v>
+      </c>
+      <c r="AZ14" s="32">
+        <v>4.96</v>
+      </c>
+      <c r="BA14" s="32">
+        <v>13.77</v>
+      </c>
+      <c r="BB14" s="32">
+        <v>20.239999999999998</v>
+      </c>
+      <c r="BC14" s="43">
+        <v>30.418027479538694</v>
+      </c>
+      <c r="BD14" s="43">
+        <v>2.6133195307715242</v>
+      </c>
+      <c r="BE14" s="43">
+        <v>2.1910631360005484</v>
+      </c>
+      <c r="BF14" s="43">
+        <v>0.46895756285624529</v>
+      </c>
+      <c r="BG14" s="43">
+        <v>10.81132041173983</v>
+      </c>
+      <c r="BH14" s="43">
+        <v>0.96515747376223093</v>
+      </c>
+      <c r="BI14" s="43">
+        <v>2.6794795188923226</v>
+      </c>
+      <c r="BJ14" s="43">
+        <v>3.938465175191038</v>
+      </c>
     </row>
-    <row r="15" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:62" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>30</v>
       </c>
@@ -2498,16 +3979,107 @@
       <c r="AC15" s="8">
         <v>6.6866666666666674</v>
       </c>
-      <c r="AD15" s="32"/>
-      <c r="AE15" s="32"/>
-      <c r="AF15" s="32"/>
-      <c r="AG15" s="32"/>
-      <c r="AH15" s="31"/>
-      <c r="AI15" s="31"/>
-      <c r="AJ15" s="31"/>
-      <c r="AK15" s="31"/>
+      <c r="AD15" s="13">
+        <v>2.8891979633460285</v>
+      </c>
+      <c r="AE15" s="32">
+        <v>195.78749746934281</v>
+      </c>
+      <c r="AF15" s="32">
+        <v>257.75616103895879</v>
+      </c>
+      <c r="AG15" s="32">
+        <v>111.80246104331169</v>
+      </c>
+      <c r="AH15" s="32">
+        <v>21.042251689441379</v>
+      </c>
+      <c r="AI15" s="32">
+        <v>47.136863732236307</v>
+      </c>
+      <c r="AJ15" s="32">
+        <v>20.581175359162916</v>
+      </c>
+      <c r="AK15" s="32">
+        <v>35.683482895184646</v>
+      </c>
+      <c r="AL15" s="32">
+        <v>494.00239575829556</v>
+      </c>
+      <c r="AM15" s="32">
+        <v>390.60087377171169</v>
+      </c>
+      <c r="AN15" s="32">
+        <v>103.40152198658384</v>
+      </c>
+      <c r="AO15" s="32">
+        <v>52.177107490197912</v>
+      </c>
+      <c r="AP15" s="32">
+        <v>22.631967375723853</v>
+      </c>
+      <c r="AQ15" s="32">
+        <v>4.2595444617513323</v>
+      </c>
+      <c r="AR15" s="32">
+        <v>9.5418289743071067</v>
+      </c>
+      <c r="AS15" s="32">
+        <v>4.1662096248684657</v>
+      </c>
+      <c r="AT15" s="32">
+        <v>7.2233420731513593</v>
+      </c>
+      <c r="AU15" s="32">
+        <v>202.94</v>
+      </c>
+      <c r="AV15" s="32">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="AW15" s="32">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="AX15" s="32">
+        <v>1.46</v>
+      </c>
+      <c r="AY15" s="32">
+        <v>57.8</v>
+      </c>
+      <c r="AZ15" s="32">
+        <v>6.03</v>
+      </c>
+      <c r="BA15" s="32">
+        <v>33.49</v>
+      </c>
+      <c r="BB15" s="32">
+        <v>10.29</v>
+      </c>
+      <c r="BC15" s="43">
+        <v>40.824547938478972</v>
+      </c>
+      <c r="BD15" s="43">
+        <v>0.97766484173158474</v>
+      </c>
+      <c r="BE15" s="43">
+        <v>1.8668168171335608</v>
+      </c>
+      <c r="BF15" s="43">
+        <v>0.2937017837300645</v>
+      </c>
+      <c r="BG15" s="43">
+        <v>11.627371986025841</v>
+      </c>
+      <c r="BH15" s="43">
+        <v>1.2130285999262256</v>
+      </c>
+      <c r="BI15" s="43">
+        <v>6.737036121314973</v>
+      </c>
+      <c r="BJ15" s="43">
+        <v>2.0699940784810709</v>
+      </c>
     </row>
-    <row r="16" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:62" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>31</v>
       </c>
@@ -2595,16 +4167,107 @@
       <c r="AC16" s="8">
         <v>6.6066666666666665</v>
       </c>
-      <c r="AD16" s="32"/>
-      <c r="AE16" s="32"/>
-      <c r="AF16" s="32"/>
-      <c r="AG16" s="32"/>
-      <c r="AH16" s="31"/>
-      <c r="AI16" s="31"/>
-      <c r="AJ16" s="31"/>
-      <c r="AK16" s="31"/>
+      <c r="AD16" s="13">
+        <v>3.2125276133944629</v>
+      </c>
+      <c r="AE16" s="32">
+        <v>181.29554831808659</v>
+      </c>
+      <c r="AF16" s="32">
+        <v>274.71409764327672</v>
+      </c>
+      <c r="AG16" s="32">
+        <v>64.112714010010393</v>
+      </c>
+      <c r="AH16" s="32">
+        <v>32.526259492469151</v>
+      </c>
+      <c r="AI16" s="32">
+        <v>42.369695261493185</v>
+      </c>
+      <c r="AJ16" s="32">
+        <v>26.06610606260444</v>
+      </c>
+      <c r="AK16" s="32">
+        <v>29.308896998416461</v>
+      </c>
+      <c r="AL16" s="32">
+        <v>469.09776946827026</v>
+      </c>
+      <c r="AM16" s="32">
+        <v>371.35307114575619</v>
+      </c>
+      <c r="AN16" s="32">
+        <v>97.744698322514097</v>
+      </c>
+      <c r="AO16" s="32">
+        <v>58.562226368006293</v>
+      </c>
+      <c r="AP16" s="32">
+        <v>13.667239152017963</v>
+      </c>
+      <c r="AQ16" s="32">
+        <v>6.9337911219100832</v>
+      </c>
+      <c r="AR16" s="32">
+        <v>9.0321672834897306</v>
+      </c>
+      <c r="AS16" s="32">
+        <v>5.5566467715569789</v>
+      </c>
+      <c r="AT16" s="32">
+        <v>6.2479293030189762</v>
+      </c>
+      <c r="AU16" s="32">
+        <v>375.55</v>
+      </c>
+      <c r="AV16" s="32">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="32">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="AX16" s="32">
+        <v>0</v>
+      </c>
+      <c r="AY16" s="32">
+        <v>65.709999999999994</v>
+      </c>
+      <c r="AZ16" s="32">
+        <v>7.39</v>
+      </c>
+      <c r="BA16" s="32">
+        <v>67.56</v>
+      </c>
+      <c r="BB16" s="32">
+        <v>22.05</v>
+      </c>
+      <c r="BC16" s="43">
+        <v>80.163422359417297</v>
+      </c>
+      <c r="BD16" s="43">
+        <v>0</v>
+      </c>
+      <c r="BE16" s="43">
+        <v>1.929642758964538</v>
+      </c>
+      <c r="BF16" s="43">
+        <v>0</v>
+      </c>
+      <c r="BG16" s="43">
+        <v>14.026197532252189</v>
+      </c>
+      <c r="BH16" s="43">
+        <v>1.5774402642420284</v>
+      </c>
+      <c r="BI16" s="43">
+        <v>14.421091238456219</v>
+      </c>
+      <c r="BJ16" s="43">
+        <v>4.7067060658371753</v>
+      </c>
     </row>
-    <row r="17" spans="1:37" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:62" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>32</v>
       </c>
@@ -2692,16 +4355,107 @@
       <c r="AC17" s="8">
         <v>6.7566666666666668</v>
       </c>
-      <c r="AD17" s="32"/>
-      <c r="AE17" s="32"/>
-      <c r="AF17" s="32"/>
-      <c r="AG17" s="32"/>
-      <c r="AH17" s="31"/>
-      <c r="AI17" s="31"/>
-      <c r="AJ17" s="31"/>
-      <c r="AK17" s="31"/>
+      <c r="AD17" s="13">
+        <v>2.2986526698807048</v>
+      </c>
+      <c r="AE17" s="32">
+        <v>164.52309658679525</v>
+      </c>
+      <c r="AF17" s="32">
+        <v>200.00272191147155</v>
+      </c>
+      <c r="AG17" s="32">
+        <v>68.616863843486868</v>
+      </c>
+      <c r="AH17" s="32">
+        <v>17.797426338960385</v>
+      </c>
+      <c r="AI17" s="32">
+        <v>41.861336955477029</v>
+      </c>
+      <c r="AJ17" s="32">
+        <v>17.957440745924004</v>
+      </c>
+      <c r="AK17" s="32">
+        <v>28.291903079951116</v>
+      </c>
+      <c r="AL17" s="32">
+        <v>374.52769287527104</v>
+      </c>
+      <c r="AM17" s="32">
+        <v>286.41701209391886</v>
+      </c>
+      <c r="AN17" s="32">
+        <v>88.110680781352144</v>
+      </c>
+      <c r="AO17" s="32">
+        <v>53.401317370162658</v>
+      </c>
+      <c r="AP17" s="32">
+        <v>18.32090527584521</v>
+      </c>
+      <c r="AQ17" s="32">
+        <v>4.7519653893490492</v>
+      </c>
+      <c r="AR17" s="32">
+        <v>11.177100586102217</v>
+      </c>
+      <c r="AS17" s="32">
+        <v>4.7946897085402895</v>
+      </c>
+      <c r="AT17" s="32">
+        <v>7.5540216700005596</v>
+      </c>
+      <c r="AU17" s="32">
+        <v>231.48</v>
+      </c>
+      <c r="AV17" s="32">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="32">
+        <v>25.22</v>
+      </c>
+      <c r="AX17" s="32">
+        <v>0</v>
+      </c>
+      <c r="AY17" s="32">
+        <v>125.51</v>
+      </c>
+      <c r="AZ17" s="32">
+        <v>17.39</v>
+      </c>
+      <c r="BA17" s="32">
+        <v>20.85</v>
+      </c>
+      <c r="BB17" s="32">
+        <v>37.28</v>
+      </c>
+      <c r="BC17" s="43">
+        <v>48.13600705253144</v>
+      </c>
+      <c r="BD17" s="43">
+        <v>0</v>
+      </c>
+      <c r="BE17" s="43">
+        <v>5.2444707873891607</v>
+      </c>
+      <c r="BF17" s="43">
+        <v>0</v>
+      </c>
+      <c r="BG17" s="43">
+        <v>26.09966409695534</v>
+      </c>
+      <c r="BH17" s="43">
+        <v>3.6162310464987115</v>
+      </c>
+      <c r="BI17" s="43">
+        <v>4.3357341759343377</v>
+      </c>
+      <c r="BJ17" s="43">
+        <v>7.7523342963468647</v>
+      </c>
     </row>
-    <row r="18" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>33</v>
       </c>
@@ -2789,16 +4543,107 @@
       <c r="AC18" s="9">
         <v>6.626666666666666</v>
       </c>
-      <c r="AD18" s="32"/>
-      <c r="AE18" s="32"/>
-      <c r="AF18" s="32"/>
-      <c r="AG18" s="32"/>
-      <c r="AH18" s="31"/>
-      <c r="AI18" s="31"/>
-      <c r="AJ18" s="31"/>
-      <c r="AK18" s="31"/>
+      <c r="AD18" s="13">
+        <v>2.390481707918326</v>
+      </c>
+      <c r="AE18" s="32">
+        <v>179.60968065736921</v>
+      </c>
+      <c r="AF18" s="32">
+        <v>100.09968655971771</v>
+      </c>
+      <c r="AG18" s="32">
+        <v>43.676093238042242</v>
+      </c>
+      <c r="AH18" s="32">
+        <v>13.724142480568192</v>
+      </c>
+      <c r="AI18" s="32">
+        <v>31.497015687375487</v>
+      </c>
+      <c r="AJ18" s="32">
+        <v>14.708251953736696</v>
+      </c>
+      <c r="AK18" s="32">
+        <v>22.261705314113584</v>
+      </c>
+      <c r="AL18" s="32">
+        <v>225.96689523355388</v>
+      </c>
+      <c r="AM18" s="32">
+        <v>157.49992227832814</v>
+      </c>
+      <c r="AN18" s="32">
+        <v>68.466972955225771</v>
+      </c>
+      <c r="AO18" s="32">
+        <v>44.298385591507596</v>
+      </c>
+      <c r="AP18" s="32">
+        <v>19.328536241071813</v>
+      </c>
+      <c r="AQ18" s="32">
+        <v>6.0735190729523687</v>
+      </c>
+      <c r="AR18" s="32">
+        <v>13.938774374370608</v>
+      </c>
+      <c r="AS18" s="32">
+        <v>6.5090295366206652</v>
+      </c>
+      <c r="AT18" s="32">
+        <v>9.8517551834769534</v>
+      </c>
+      <c r="AU18" s="32">
+        <v>197.39</v>
+      </c>
+      <c r="AV18" s="32">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="32">
+        <v>15.26</v>
+      </c>
+      <c r="AX18" s="32">
+        <v>0</v>
+      </c>
+      <c r="AY18" s="32">
+        <v>62.66</v>
+      </c>
+      <c r="AZ18" s="32">
+        <v>20.010000000000002</v>
+      </c>
+      <c r="BA18" s="32">
+        <v>85.83</v>
+      </c>
+      <c r="BB18" s="32">
+        <v>28.19</v>
+      </c>
+      <c r="BC18" s="43">
+        <v>43.652213175173316</v>
+      </c>
+      <c r="BD18" s="43">
+        <v>0</v>
+      </c>
+      <c r="BE18" s="43">
+        <v>3.374703749192689</v>
+      </c>
+      <c r="BF18" s="43">
+        <v>0</v>
+      </c>
+      <c r="BG18" s="43">
+        <v>13.857073192949795</v>
+      </c>
+      <c r="BH18" s="43">
+        <v>4.4251521639151834</v>
+      </c>
+      <c r="BI18" s="43">
+        <v>18.981049986448788</v>
+      </c>
+      <c r="BJ18" s="43">
+        <v>6.234134907584659</v>
+      </c>
     </row>
-    <row r="19" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -2886,16 +4731,107 @@
       <c r="AC19" s="9">
         <v>6.6599999999999993</v>
       </c>
-      <c r="AD19" s="32"/>
-      <c r="AE19" s="32"/>
-      <c r="AF19" s="32"/>
-      <c r="AG19" s="32"/>
-      <c r="AH19" s="31"/>
-      <c r="AI19" s="31"/>
-      <c r="AJ19" s="31"/>
-      <c r="AK19" s="31"/>
+      <c r="AD19" s="13">
+        <v>3.1909082908192401</v>
+      </c>
+      <c r="AE19" s="32">
+        <v>256.72520945826921</v>
+      </c>
+      <c r="AF19" s="32">
+        <v>86.818290706428911</v>
+      </c>
+      <c r="AG19" s="32">
+        <v>50.169059757450988</v>
+      </c>
+      <c r="AH19" s="32">
+        <v>17.228119047886771</v>
+      </c>
+      <c r="AI19" s="32">
+        <v>22.532864792942</v>
+      </c>
+      <c r="AJ19" s="32">
+        <v>17.370659854928729</v>
+      </c>
+      <c r="AK19" s="32">
+        <v>22.342607465815949</v>
+      </c>
+      <c r="AL19" s="32">
+        <v>216.46160162545337</v>
+      </c>
+      <c r="AM19" s="32">
+        <v>154.21546951176671</v>
+      </c>
+      <c r="AN19" s="32">
+        <v>62.24613211368667</v>
+      </c>
+      <c r="AO19" s="32">
+        <v>40.1079406483612</v>
+      </c>
+      <c r="AP19" s="32">
+        <v>23.176886515077733</v>
+      </c>
+      <c r="AQ19" s="32">
+        <v>7.9589723620805657</v>
+      </c>
+      <c r="AR19" s="32">
+        <v>10.409635992590935</v>
+      </c>
+      <c r="AS19" s="32">
+        <v>8.0248227512357744</v>
+      </c>
+      <c r="AT19" s="32">
+        <v>10.321741730653775</v>
+      </c>
+      <c r="AU19" s="32">
+        <v>206.24</v>
+      </c>
+      <c r="AV19" s="32">
+        <v>47.11</v>
+      </c>
+      <c r="AW19" s="32">
+        <v>28.83</v>
+      </c>
+      <c r="AX19" s="32">
+        <v>0</v>
+      </c>
+      <c r="AY19" s="32">
+        <v>56.86</v>
+      </c>
+      <c r="AZ19" s="32">
+        <v>16.47</v>
+      </c>
+      <c r="BA19" s="32">
+        <v>0</v>
+      </c>
+      <c r="BB19" s="32">
+        <v>6.54</v>
+      </c>
+      <c r="BC19" s="43">
+        <v>53.386334082202943</v>
+      </c>
+      <c r="BD19" s="43">
+        <v>12.194677068524925</v>
+      </c>
+      <c r="BE19" s="43">
+        <v>7.4628006768323827</v>
+      </c>
+      <c r="BF19" s="43">
+        <v>0</v>
+      </c>
+      <c r="BG19" s="43">
+        <v>14.718517047682598</v>
+      </c>
+      <c r="BH19" s="43">
+        <v>4.2633481494078849</v>
+      </c>
+      <c r="BI19" s="43">
+        <v>0</v>
+      </c>
+      <c r="BJ19" s="43">
+        <v>1.6929142014042242</v>
+      </c>
     </row>
-    <row r="20" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>31</v>
       </c>
@@ -2983,16 +4919,107 @@
       <c r="AC20" s="9">
         <v>6.6099999999999994</v>
       </c>
-      <c r="AD20" s="32"/>
-      <c r="AE20" s="32"/>
-      <c r="AF20" s="32"/>
-      <c r="AG20" s="32"/>
-      <c r="AH20" s="31"/>
-      <c r="AI20" s="31"/>
-      <c r="AJ20" s="31"/>
-      <c r="AK20" s="31"/>
+      <c r="AD20" s="13">
+        <v>2.4129647355246635</v>
+      </c>
+      <c r="AE20" s="32">
+        <v>201.21266733848839</v>
+      </c>
+      <c r="AF20" s="32">
+        <v>167.15390566189927</v>
+      </c>
+      <c r="AG20" s="32">
+        <v>46.235464591691326</v>
+      </c>
+      <c r="AH20" s="32">
+        <v>18.800405929516046</v>
+      </c>
+      <c r="AI20" s="32">
+        <v>25.883485915722662</v>
+      </c>
+      <c r="AJ20" s="32">
+        <v>23.883616533075241</v>
+      </c>
+      <c r="AK20" s="32">
+        <v>16.628923118698829</v>
+      </c>
+      <c r="AL20" s="32">
+        <v>298.58580175060337</v>
+      </c>
+      <c r="AM20" s="32">
+        <v>232.18977618310669</v>
+      </c>
+      <c r="AN20" s="32">
+        <v>66.396025567496736</v>
+      </c>
+      <c r="AO20" s="32">
+        <v>55.981866747138952</v>
+      </c>
+      <c r="AP20" s="32">
+        <v>15.484816866915171</v>
+      </c>
+      <c r="AQ20" s="32">
+        <v>6.2964835632805016</v>
+      </c>
+      <c r="AR20" s="32">
+        <v>8.6686928058763133</v>
+      </c>
+      <c r="AS20" s="32">
+        <v>7.9989123371057875</v>
+      </c>
+      <c r="AT20" s="32">
+        <v>5.5692276796832738</v>
+      </c>
+      <c r="AU20" s="32">
+        <v>156.04</v>
+      </c>
+      <c r="AV20" s="32">
+        <v>42.68</v>
+      </c>
+      <c r="AW20" s="32">
+        <v>153.01</v>
+      </c>
+      <c r="AX20" s="32">
+        <v>1.9</v>
+      </c>
+      <c r="AY20" s="32">
+        <v>47.29</v>
+      </c>
+      <c r="AZ20" s="32">
+        <v>10.47</v>
+      </c>
+      <c r="BA20" s="32">
+        <v>47.75</v>
+      </c>
+      <c r="BB20" s="32">
+        <v>21.48</v>
+      </c>
+      <c r="BC20" s="43">
+        <v>32.606092872017925</v>
+      </c>
+      <c r="BD20" s="43">
+        <v>8.918405817596291</v>
+      </c>
+      <c r="BE20" s="43">
+        <v>31.972944567722781</v>
+      </c>
+      <c r="BF20" s="43">
+        <v>0.39702368916197167</v>
+      </c>
+      <c r="BG20" s="43">
+        <v>9.8817106634050749</v>
+      </c>
+      <c r="BH20" s="43">
+        <v>2.1878094871188649</v>
+      </c>
+      <c r="BI20" s="43">
+        <v>9.9778321881495522</v>
+      </c>
+      <c r="BJ20" s="43">
+        <v>4.4884572858942899</v>
+      </c>
     </row>
-    <row r="21" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>35</v>
       </c>
@@ -3080,16 +5107,107 @@
       <c r="AC21" s="9">
         <v>7.0033333333333339</v>
       </c>
-      <c r="AD21" s="32"/>
-      <c r="AE21" s="32"/>
-      <c r="AF21" s="32"/>
-      <c r="AG21" s="32"/>
-      <c r="AH21" s="31"/>
-      <c r="AI21" s="31"/>
-      <c r="AJ21" s="31"/>
-      <c r="AK21" s="31"/>
+      <c r="AD21" s="13">
+        <v>3.2346262392970093</v>
+      </c>
+      <c r="AE21" s="32">
+        <v>181.90970629994595</v>
+      </c>
+      <c r="AF21" s="32">
+        <v>197.41315511103014</v>
+      </c>
+      <c r="AG21" s="32">
+        <v>102.32021184789923</v>
+      </c>
+      <c r="AH21" s="32">
+        <v>14.993622396086579</v>
+      </c>
+      <c r="AI21" s="32">
+        <v>42.496068022685378</v>
+      </c>
+      <c r="AJ21" s="32">
+        <v>13.531938904774044</v>
+      </c>
+      <c r="AK21" s="32">
+        <v>23.296486617786222</v>
+      </c>
+      <c r="AL21" s="32">
+        <v>394.05148290026159</v>
+      </c>
+      <c r="AM21" s="32">
+        <v>314.72698935501597</v>
+      </c>
+      <c r="AN21" s="32">
+        <v>79.324493545245645</v>
+      </c>
+      <c r="AO21" s="32">
+        <v>50.098315493713649</v>
+      </c>
+      <c r="AP21" s="32">
+        <v>25.966203982995161</v>
+      </c>
+      <c r="AQ21" s="32">
+        <v>3.8049907300771704</v>
+      </c>
+      <c r="AR21" s="32">
+        <v>10.784394899344043</v>
+      </c>
+      <c r="AS21" s="32">
+        <v>3.4340535417294991</v>
+      </c>
+      <c r="AT21" s="32">
+        <v>5.9120413521404762</v>
+      </c>
+      <c r="AU21" s="32">
+        <v>122.31</v>
+      </c>
+      <c r="AV21" s="32">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="32">
+        <v>23.37</v>
+      </c>
+      <c r="AX21" s="32">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="32">
+        <v>101.51</v>
+      </c>
+      <c r="AZ21" s="32">
+        <v>27.98</v>
+      </c>
+      <c r="BA21" s="32">
+        <v>152.28</v>
+      </c>
+      <c r="BB21" s="32">
+        <v>20.37</v>
+      </c>
+      <c r="BC21" s="43">
+        <v>25.114458487291074</v>
+      </c>
+      <c r="BD21" s="43">
+        <v>0</v>
+      </c>
+      <c r="BE21" s="43">
+        <v>4.7986664610252019</v>
+      </c>
+      <c r="BF21" s="43">
+        <v>0</v>
+      </c>
+      <c r="BG21" s="43">
+        <v>20.843501602852726</v>
+      </c>
+      <c r="BH21" s="43">
+        <v>5.7452583474319701</v>
+      </c>
+      <c r="BI21" s="43">
+        <v>31.268332421263057</v>
+      </c>
+      <c r="BJ21" s="43">
+        <v>4.1826630642312095</v>
+      </c>
     </row>
-    <row r="22" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>36</v>
       </c>
@@ -3177,16 +5295,107 @@
       <c r="AC22" s="9">
         <v>6.8666666666666663</v>
       </c>
-      <c r="AD22" s="32"/>
-      <c r="AE22" s="32"/>
-      <c r="AF22" s="32"/>
-      <c r="AG22" s="32"/>
-      <c r="AH22" s="31"/>
-      <c r="AI22" s="31"/>
-      <c r="AJ22" s="31"/>
-      <c r="AK22" s="31"/>
+      <c r="AD22" s="13">
+        <v>1.9079830878595194</v>
+      </c>
+      <c r="AE22" s="32">
+        <v>153.8055254246884</v>
+      </c>
+      <c r="AF22" s="32">
+        <v>114.9499063650396</v>
+      </c>
+      <c r="AG22" s="32">
+        <v>61.432733893039291</v>
+      </c>
+      <c r="AH22" s="32">
+        <v>14.47343768131431</v>
+      </c>
+      <c r="AI22" s="32">
+        <v>41.674934728445834</v>
+      </c>
+      <c r="AJ22" s="32">
+        <v>16.847656496381372</v>
+      </c>
+      <c r="AK22" s="32">
+        <v>29.16745814362142</v>
+      </c>
+      <c r="AL22" s="32">
+        <v>278.54612730784186</v>
+      </c>
+      <c r="AM22" s="32">
+        <v>190.85607793939323</v>
+      </c>
+      <c r="AN22" s="32">
+        <v>87.690049368448612</v>
+      </c>
+      <c r="AO22" s="32">
+        <v>41.267817103053808</v>
+      </c>
+      <c r="AP22" s="32">
+        <v>22.054779395710447</v>
+      </c>
+      <c r="AQ22" s="32">
+        <v>5.1960649466573443</v>
+      </c>
+      <c r="AR22" s="32">
+        <v>14.96159186675311</v>
+      </c>
+      <c r="AS22" s="32">
+        <v>6.048426039598743</v>
+      </c>
+      <c r="AT22" s="32">
+        <v>10.471320648226536</v>
+      </c>
+      <c r="AU22" s="32">
+        <v>142.57</v>
+      </c>
+      <c r="AV22" s="32">
+        <v>0</v>
+      </c>
+      <c r="AW22" s="32">
+        <v>15.47</v>
+      </c>
+      <c r="AX22" s="32">
+        <v>1.66</v>
+      </c>
+      <c r="AY22" s="32">
+        <v>50.08</v>
+      </c>
+      <c r="AZ22" s="32">
+        <v>14.71</v>
+      </c>
+      <c r="BA22" s="32">
+        <v>10.28</v>
+      </c>
+      <c r="BB22" s="32">
+        <v>12.58</v>
+      </c>
+      <c r="BC22" s="43">
+        <v>32.41248461009647</v>
+      </c>
+      <c r="BD22" s="43">
+        <v>0</v>
+      </c>
+      <c r="BE22" s="43">
+        <v>3.5170171629248261</v>
+      </c>
+      <c r="BF22" s="43">
+        <v>0.37739162834228901</v>
+      </c>
+      <c r="BG22" s="43">
+        <v>11.385405269507128</v>
+      </c>
+      <c r="BH22" s="43">
+        <v>3.3442354535632961</v>
+      </c>
+      <c r="BI22" s="43">
+        <v>2.337099963469115</v>
+      </c>
+      <c r="BJ22" s="43">
+        <v>2.8599919786421659</v>
+      </c>
     </row>
-    <row r="23" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>26</v>
       </c>
@@ -3274,15 +5483,107 @@
       <c r="AC23" s="9">
         <v>6.6700000000000008</v>
       </c>
-      <c r="AD23" s="32"/>
-      <c r="AE23" s="32"/>
-      <c r="AF23" s="32"/>
-      <c r="AG23" s="32"/>
-      <c r="AH23" s="31"/>
-      <c r="AI23" s="31"/>
-      <c r="AJ23" s="31"/>
+      <c r="AD23" s="13">
+        <v>2.337160252882188</v>
+      </c>
+      <c r="AE23" s="32">
+        <v>164.5974153586738</v>
+      </c>
+      <c r="AF23" s="32">
+        <v>180.27981009286941</v>
+      </c>
+      <c r="AG23" s="32">
+        <v>67.392990036360104</v>
+      </c>
+      <c r="AH23" s="32">
+        <v>15.334046020107222</v>
+      </c>
+      <c r="AI23" s="32">
+        <v>42.613748438726347</v>
+      </c>
+      <c r="AJ23" s="32">
+        <v>16.679662428127195</v>
+      </c>
+      <c r="AK23" s="32">
+        <v>24.53065575591366</v>
+      </c>
+      <c r="AL23" s="32">
+        <v>346.83091277210394</v>
+      </c>
+      <c r="AM23" s="32">
+        <v>263.00684614933675</v>
+      </c>
+      <c r="AN23" s="32">
+        <v>83.824066622767191</v>
+      </c>
+      <c r="AO23" s="32">
+        <v>51.979164328794383</v>
+      </c>
+      <c r="AP23" s="32">
+        <v>19.431079397655299</v>
+      </c>
+      <c r="AQ23" s="32">
+        <v>4.4211878051893647</v>
+      </c>
+      <c r="AR23" s="32">
+        <v>12.286606201889228</v>
+      </c>
+      <c r="AS23" s="32">
+        <v>4.8091625670884435</v>
+      </c>
+      <c r="AT23" s="32">
+        <v>7.0727996993832809</v>
+      </c>
+      <c r="AU23" s="32">
+        <v>0</v>
+      </c>
+      <c r="AV23" s="32">
+        <v>0</v>
+      </c>
+      <c r="AW23" s="32">
+        <v>34.64</v>
+      </c>
+      <c r="AX23" s="32">
+        <v>0</v>
+      </c>
+      <c r="AY23" s="32">
+        <v>239.67</v>
+      </c>
+      <c r="AZ23" s="32">
+        <v>13.62</v>
+      </c>
+      <c r="BA23" s="32">
+        <v>174.99</v>
+      </c>
+      <c r="BB23" s="32">
+        <v>33.94</v>
+      </c>
+      <c r="BC23" s="43">
+        <v>0</v>
+      </c>
+      <c r="BD23" s="43">
+        <v>0</v>
+      </c>
+      <c r="BE23" s="43">
+        <v>7.5824943552319075</v>
+      </c>
+      <c r="BF23" s="43">
+        <v>0</v>
+      </c>
+      <c r="BG23" s="43">
+        <v>52.462367844065568</v>
+      </c>
+      <c r="BH23" s="43">
+        <v>2.9813387158850628</v>
+      </c>
+      <c r="BI23" s="43">
+        <v>38.304292356294219</v>
+      </c>
+      <c r="BJ23" s="43">
+        <v>7.4292684300395768</v>
+      </c>
     </row>
-    <row r="24" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>37</v>
       </c>
@@ -3370,15 +5671,107 @@
       <c r="AC24" s="9">
         <v>6.873333333333334</v>
       </c>
-      <c r="AD24" s="32"/>
-      <c r="AE24" s="32"/>
-      <c r="AF24" s="32"/>
-      <c r="AG24" s="32"/>
-      <c r="AH24" s="31"/>
-      <c r="AI24" s="31"/>
-      <c r="AJ24" s="31"/>
+      <c r="AD24" s="13">
+        <v>2.1528034529343758</v>
+      </c>
+      <c r="AE24" s="32">
+        <v>197.83949616545266</v>
+      </c>
+      <c r="AF24" s="32">
+        <v>114.91238375384083</v>
+      </c>
+      <c r="AG24" s="32">
+        <v>57.873883984404337</v>
+      </c>
+      <c r="AH24" s="32">
+        <v>15.04171702217061</v>
+      </c>
+      <c r="AI24" s="32">
+        <v>45.275383247651284</v>
+      </c>
+      <c r="AJ24" s="32">
+        <v>17.793093093343568</v>
+      </c>
+      <c r="AK24" s="32">
+        <v>26.191707654380998</v>
+      </c>
+      <c r="AL24" s="32">
+        <v>277.08816875579163</v>
+      </c>
+      <c r="AM24" s="32">
+        <v>187.82798476041583</v>
+      </c>
+      <c r="AN24" s="32">
+        <v>89.260183995375868</v>
+      </c>
+      <c r="AO24" s="32">
+        <v>41.47141477379985</v>
+      </c>
+      <c r="AP24" s="32">
+        <v>20.88645078000815</v>
+      </c>
+      <c r="AQ24" s="32">
+        <v>5.4284948685151004</v>
+      </c>
+      <c r="AR24" s="32">
+        <v>16.339702792418468</v>
+      </c>
+      <c r="AS24" s="32">
+        <v>6.4214553704114667</v>
+      </c>
+      <c r="AT24" s="32">
+        <v>9.4524814148469645</v>
+      </c>
+      <c r="AU24" s="32">
+        <v>125.29</v>
+      </c>
+      <c r="AV24" s="32">
+        <v>2.74</v>
+      </c>
+      <c r="AW24" s="32">
+        <v>15.69</v>
+      </c>
+      <c r="AX24" s="32">
+        <v>0</v>
+      </c>
+      <c r="AY24" s="32">
+        <v>68.33</v>
+      </c>
+      <c r="AZ24" s="32">
+        <v>11.97</v>
+      </c>
+      <c r="BA24" s="32">
+        <v>42.48</v>
+      </c>
+      <c r="BB24" s="32">
+        <v>7.29</v>
+      </c>
+      <c r="BC24" s="43">
+        <v>25.320652748273577</v>
+      </c>
+      <c r="BD24" s="43">
+        <v>0.5537440221108596</v>
+      </c>
+      <c r="BE24" s="43">
+        <v>3.1708918638391919</v>
+      </c>
+      <c r="BF24" s="43">
+        <v>0</v>
+      </c>
+      <c r="BG24" s="43">
+        <v>13.809244171837603</v>
+      </c>
+      <c r="BH24" s="43">
+        <v>2.4190934104624047</v>
+      </c>
+      <c r="BI24" s="43">
+        <v>8.5850533063026671</v>
+      </c>
+      <c r="BJ24" s="43">
+        <v>1.4732824529883817</v>
+      </c>
     </row>
-    <row r="25" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>38</v>
       </c>
@@ -3466,15 +5859,107 @@
       <c r="AC25" s="9">
         <v>7.3166666666666664</v>
       </c>
-      <c r="AD25" s="32"/>
-      <c r="AE25" s="32"/>
-      <c r="AF25" s="32"/>
-      <c r="AG25" s="32"/>
-      <c r="AH25" s="31"/>
-      <c r="AI25" s="31"/>
-      <c r="AJ25" s="31"/>
+      <c r="AD25" s="13">
+        <v>3.0867240269542551</v>
+      </c>
+      <c r="AE25" s="32">
+        <v>144.03725609433346</v>
+      </c>
+      <c r="AF25" s="32">
+        <v>182.93749500736496</v>
+      </c>
+      <c r="AG25" s="32">
+        <v>23.494910621958372</v>
+      </c>
+      <c r="AH25" s="32">
+        <v>47.108864454820946</v>
+      </c>
+      <c r="AI25" s="32">
+        <v>15.537179536994064</v>
+      </c>
+      <c r="AJ25" s="32">
+        <v>17.282010415932213</v>
+      </c>
+      <c r="AK25" s="32">
+        <v>39.066450171072226</v>
+      </c>
+      <c r="AL25" s="32">
+        <v>325.42691020814271</v>
+      </c>
+      <c r="AM25" s="32">
+        <v>253.54127008414429</v>
+      </c>
+      <c r="AN25" s="32">
+        <v>71.885640123998499</v>
+      </c>
+      <c r="AO25" s="32">
+        <v>56.214618173511937</v>
+      </c>
+      <c r="AP25" s="32">
+        <v>7.2197196620682194</v>
+      </c>
+      <c r="AQ25" s="32">
+        <v>14.476019953202444</v>
+      </c>
+      <c r="AR25" s="32">
+        <v>4.7743991199303402</v>
+      </c>
+      <c r="AS25" s="32">
+        <v>5.3105658671185667</v>
+      </c>
+      <c r="AT25" s="32">
+        <v>12.004677224168512</v>
+      </c>
+      <c r="AU25" s="32">
+        <v>104.08</v>
+      </c>
+      <c r="AV25" s="32">
+        <v>1.65</v>
+      </c>
+      <c r="AW25" s="32">
+        <v>5.33</v>
+      </c>
+      <c r="AX25" s="32">
+        <v>0</v>
+      </c>
+      <c r="AY25" s="32">
+        <v>90.13</v>
+      </c>
+      <c r="AZ25" s="32">
+        <v>3.61</v>
+      </c>
+      <c r="BA25" s="32">
+        <v>13.44</v>
+      </c>
+      <c r="BB25" s="32">
+        <v>12.34</v>
+      </c>
+      <c r="BC25" s="43">
+        <v>21.414455727351896</v>
+      </c>
+      <c r="BD25" s="43">
+        <v>0.33948743226489847</v>
+      </c>
+      <c r="BE25" s="43">
+        <v>1.096647281195096</v>
+      </c>
+      <c r="BF25" s="43">
+        <v>0</v>
+      </c>
+      <c r="BG25" s="43">
+        <v>18.544243800021391</v>
+      </c>
+      <c r="BH25" s="43">
+        <v>0.74275735180380809</v>
+      </c>
+      <c r="BI25" s="43">
+        <v>2.765279448266809</v>
+      </c>
+      <c r="BJ25" s="43">
+        <v>2.5389544934235437</v>
+      </c>
     </row>
-    <row r="26" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>39</v>
       </c>
@@ -3562,15 +6047,107 @@
       <c r="AC26" s="9">
         <v>6.8533333333333326</v>
       </c>
-      <c r="AD26" s="32"/>
-      <c r="AE26" s="32"/>
-      <c r="AF26" s="32"/>
-      <c r="AG26" s="32"/>
-      <c r="AH26" s="31"/>
-      <c r="AI26" s="31"/>
-      <c r="AJ26" s="31"/>
+      <c r="AD26" s="13">
+        <v>3.1638810871647323</v>
+      </c>
+      <c r="AE26" s="32">
+        <v>205.6358130591168</v>
+      </c>
+      <c r="AF26" s="32">
+        <v>66.352838612282085</v>
+      </c>
+      <c r="AG26" s="32">
+        <v>26.925667386368644</v>
+      </c>
+      <c r="AH26" s="32">
+        <v>14.333587196093241</v>
+      </c>
+      <c r="AI26" s="32">
+        <v>20.968283968045277</v>
+      </c>
+      <c r="AJ26" s="32">
+        <v>13.798992080735623</v>
+      </c>
+      <c r="AK26" s="32">
+        <v>16.539822474498266</v>
+      </c>
+      <c r="AL26" s="32">
+        <v>158.91919171802311</v>
+      </c>
+      <c r="AM26" s="32">
+        <v>107.61209319474398</v>
+      </c>
+      <c r="AN26" s="32">
+        <v>51.307098523279173</v>
+      </c>
+      <c r="AO26" s="32">
+        <v>41.752564869581434</v>
+      </c>
+      <c r="AP26" s="32">
+        <v>16.942992910600733</v>
+      </c>
+      <c r="AQ26" s="32">
+        <v>9.019418637319724</v>
+      </c>
+      <c r="AR26" s="32">
+        <v>13.194305697986538</v>
+      </c>
+      <c r="AS26" s="32">
+        <v>8.6830243292576927</v>
+      </c>
+      <c r="AT26" s="32">
+        <v>10.407693555253889</v>
+      </c>
+      <c r="AU26" s="32">
+        <v>7.11</v>
+      </c>
+      <c r="AV26" s="32">
+        <v>1.76</v>
+      </c>
+      <c r="AW26" s="32">
+        <v>1.52</v>
+      </c>
+      <c r="AX26" s="32">
+        <v>0</v>
+      </c>
+      <c r="AY26" s="32">
+        <v>2.66</v>
+      </c>
+      <c r="AZ26" s="32">
+        <v>1.03</v>
+      </c>
+      <c r="BA26" s="32">
+        <v>0</v>
+      </c>
+      <c r="BB26" s="32">
+        <v>0</v>
+      </c>
+      <c r="BC26" s="43">
+        <v>1.6609122366459641</v>
+      </c>
+      <c r="BD26" s="43">
+        <v>0.41114001919787579</v>
+      </c>
+      <c r="BE26" s="43">
+        <v>0.35507547112543819</v>
+      </c>
+      <c r="BF26" s="43">
+        <v>0</v>
+      </c>
+      <c r="BG26" s="43">
+        <v>0.62138207446951688</v>
+      </c>
+      <c r="BH26" s="43">
+        <v>0.24061035214421142</v>
+      </c>
+      <c r="BI26" s="43">
+        <v>0</v>
+      </c>
+      <c r="BJ26" s="43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>40</v>
       </c>
@@ -3658,15 +6235,107 @@
       <c r="AC27" s="9">
         <v>6.8433333333333337</v>
       </c>
-      <c r="AD27" s="32"/>
-      <c r="AE27" s="32"/>
-      <c r="AF27" s="32"/>
-      <c r="AG27" s="32"/>
-      <c r="AH27" s="31"/>
-      <c r="AI27" s="31"/>
-      <c r="AJ27" s="31"/>
+      <c r="AD27" s="13">
+        <v>3.3741901828630239</v>
+      </c>
+      <c r="AE27" s="32">
+        <v>147.35846954022202</v>
+      </c>
+      <c r="AF27" s="32">
+        <v>74.573585520741318</v>
+      </c>
+      <c r="AG27" s="32">
+        <v>35.49887791563296</v>
+      </c>
+      <c r="AH27" s="32">
+        <v>14.969757316539447</v>
+      </c>
+      <c r="AI27" s="32">
+        <v>26.096868682437101</v>
+      </c>
+      <c r="AJ27" s="32">
+        <v>14.529840408923782</v>
+      </c>
+      <c r="AK27" s="32">
+        <v>16.575688443788785</v>
+      </c>
+      <c r="AL27" s="32">
+        <v>182.24461828806338</v>
+      </c>
+      <c r="AM27" s="32">
+        <v>125.04222075291374</v>
+      </c>
+      <c r="AN27" s="32">
+        <v>57.202397535149665</v>
+      </c>
+      <c r="AO27" s="32">
+        <v>40.919499418560179</v>
+      </c>
+      <c r="AP27" s="32">
+        <v>19.478697505087347</v>
+      </c>
+      <c r="AQ27" s="32">
+        <v>8.2141011664210737</v>
+      </c>
+      <c r="AR27" s="32">
+        <v>14.319692360510373</v>
+      </c>
+      <c r="AS27" s="32">
+        <v>7.9727130191341598</v>
+      </c>
+      <c r="AT27" s="32">
+        <v>9.0952965302868733</v>
+      </c>
+      <c r="AU27" s="32">
+        <v>166.49</v>
+      </c>
+      <c r="AV27" s="32">
+        <v>18.170000000000002</v>
+      </c>
+      <c r="AW27" s="32">
+        <v>38.520000000000003</v>
+      </c>
+      <c r="AX27" s="32">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="AY27" s="32">
+        <v>47.24</v>
+      </c>
+      <c r="AZ27" s="32">
+        <v>2.56</v>
+      </c>
+      <c r="BA27" s="32">
+        <v>0</v>
+      </c>
+      <c r="BB27" s="32">
+        <v>6.76</v>
+      </c>
+      <c r="BC27" s="43">
+        <v>32.388554876484925</v>
+      </c>
+      <c r="BD27" s="43">
+        <v>3.5347470845440032</v>
+      </c>
+      <c r="BE27" s="43">
+        <v>7.4935860042176676</v>
+      </c>
+      <c r="BF27" s="43">
+        <v>0.4396548382536844</v>
+      </c>
+      <c r="BG27" s="43">
+        <v>9.189953344736308</v>
+      </c>
+      <c r="BH27" s="43">
+        <v>0.49801609996877533</v>
+      </c>
+      <c r="BI27" s="43">
+        <v>0</v>
+      </c>
+      <c r="BJ27" s="43">
+        <v>1.3150737639800472</v>
+      </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>41</v>
       </c>
@@ -3754,15 +6423,107 @@
       <c r="AC28" s="9">
         <v>6.6333333333333337</v>
       </c>
-      <c r="AD28" s="13"/>
-      <c r="AE28" s="13"/>
-      <c r="AF28" s="13"/>
-      <c r="AG28" s="13"/>
-      <c r="AH28" s="34"/>
-      <c r="AI28" s="34"/>
-      <c r="AJ28" s="34"/>
+      <c r="AD28" s="13">
+        <v>3.0314966622845736</v>
+      </c>
+      <c r="AE28" s="13">
+        <v>240.51295187572092</v>
+      </c>
+      <c r="AF28" s="13">
+        <v>50.391044375467338</v>
+      </c>
+      <c r="AG28" s="13">
+        <v>25.37983549859479</v>
+      </c>
+      <c r="AH28" s="13">
+        <v>13.078269184327567</v>
+      </c>
+      <c r="AI28" s="13">
+        <v>17.414109063991866</v>
+      </c>
+      <c r="AJ28" s="13">
+        <v>13.338099333338418</v>
+      </c>
+      <c r="AK28" s="13">
+        <v>13.559890593261553</v>
+      </c>
+      <c r="AL28" s="13">
+        <v>133.16124804898152</v>
+      </c>
+      <c r="AM28" s="13">
+        <v>88.849149058389685</v>
+      </c>
+      <c r="AN28" s="13">
+        <v>44.312098990591835</v>
+      </c>
+      <c r="AO28" s="13">
+        <v>37.842123826394065</v>
+      </c>
+      <c r="AP28" s="13">
+        <v>19.059475538453327</v>
+      </c>
+      <c r="AQ28" s="13">
+        <v>9.8213777476138606</v>
+      </c>
+      <c r="AR28" s="13">
+        <v>13.077460086275495</v>
+      </c>
+      <c r="AS28" s="13">
+        <v>10.016502194716727</v>
+      </c>
+      <c r="AT28" s="13">
+        <v>10.183060606546535</v>
+      </c>
+      <c r="AU28" s="13">
+        <v>197.91</v>
+      </c>
+      <c r="AV28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW28" s="13">
+        <v>25.03</v>
+      </c>
+      <c r="AX28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY28" s="13">
+        <v>71.84</v>
+      </c>
+      <c r="AZ28" s="13">
+        <v>23.53</v>
+      </c>
+      <c r="BA28" s="13">
+        <v>97.43</v>
+      </c>
+      <c r="BB28" s="13">
+        <v>55.17</v>
+      </c>
+      <c r="BC28" s="2">
+        <v>43.104073185831226</v>
+      </c>
+      <c r="BD28" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE28" s="2">
+        <v>5.4514423315717027</v>
+      </c>
+      <c r="BF28" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG28" s="2">
+        <v>15.64648889732765</v>
+      </c>
+      <c r="BH28" s="2">
+        <v>5.1247478250851843</v>
+      </c>
+      <c r="BI28" s="2">
+        <v>21.219897177987654</v>
+      </c>
+      <c r="BJ28" s="2">
+        <v>12.015823948574145</v>
+      </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>36</v>
       </c>
@@ -3850,15 +6611,107 @@
       <c r="AC29" s="13">
         <v>6.8866666666666667</v>
       </c>
-      <c r="AD29" s="13"/>
-      <c r="AE29" s="13"/>
-      <c r="AF29" s="13"/>
-      <c r="AG29" s="13"/>
-      <c r="AH29" s="34"/>
-      <c r="AI29" s="34"/>
-      <c r="AJ29" s="34"/>
+      <c r="AD29" s="13">
+        <v>2.4920705197777511</v>
+      </c>
+      <c r="AE29" s="13">
+        <v>238.42032074876471</v>
+      </c>
+      <c r="AF29" s="13">
+        <v>150.43584199978176</v>
+      </c>
+      <c r="AG29" s="13">
+        <v>38.260173587577462</v>
+      </c>
+      <c r="AH29" s="13">
+        <v>15.837111075129297</v>
+      </c>
+      <c r="AI29" s="13">
+        <v>26.515134191310946</v>
+      </c>
+      <c r="AJ29" s="13">
+        <v>16.179122971052216</v>
+      </c>
+      <c r="AK29" s="13">
+        <v>21.038549026473664</v>
+      </c>
+      <c r="AL29" s="13">
+        <v>268.26593285132526</v>
+      </c>
+      <c r="AM29" s="13">
+        <v>204.53312666248848</v>
+      </c>
+      <c r="AN29" s="13">
+        <v>63.732806188836825</v>
+      </c>
+      <c r="AO29" s="13">
+        <v>56.077132269774367</v>
+      </c>
+      <c r="AP29" s="13">
+        <v>14.262032148816115</v>
+      </c>
+      <c r="AQ29" s="13">
+        <v>5.903511827536569</v>
+      </c>
+      <c r="AR29" s="13">
+        <v>9.883899125576189</v>
+      </c>
+      <c r="AS29" s="13">
+        <v>6.0310017000998748</v>
+      </c>
+      <c r="AT29" s="13">
+        <v>7.8424229281969122</v>
+      </c>
+      <c r="AU29" s="13">
+        <v>204.15</v>
+      </c>
+      <c r="AV29" s="13">
+        <v>9.24</v>
+      </c>
+      <c r="AW29" s="13">
+        <v>30.12</v>
+      </c>
+      <c r="AX29" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY29" s="13">
+        <v>60.72</v>
+      </c>
+      <c r="AZ29" s="13">
+        <v>18.41</v>
+      </c>
+      <c r="BA29" s="13">
+        <v>21.01</v>
+      </c>
+      <c r="BB29" s="13">
+        <v>32.93</v>
+      </c>
+      <c r="BC29" s="2">
+        <v>47.321115320247657</v>
+      </c>
+      <c r="BD29" s="2">
+        <v>2.1417933164785126</v>
+      </c>
+      <c r="BE29" s="2">
+        <v>6.9816899017676191</v>
+      </c>
+      <c r="BF29" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG29" s="2">
+        <v>14.074641794001652</v>
+      </c>
+      <c r="BH29" s="2">
+        <v>4.267360926014006</v>
+      </c>
+      <c r="BI29" s="2">
+        <v>4.8700300410404269</v>
+      </c>
+      <c r="BJ29" s="2">
+        <v>7.6330361376230975</v>
+      </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>42</v>
       </c>
@@ -3946,15 +6799,107 @@
       <c r="AC30" s="13">
         <v>6.7399999999999993</v>
       </c>
-      <c r="AD30" s="13"/>
-      <c r="AE30" s="13"/>
-      <c r="AF30" s="13"/>
-      <c r="AG30" s="13"/>
-      <c r="AH30" s="34"/>
-      <c r="AI30" s="34"/>
-      <c r="AJ30" s="34"/>
+      <c r="AD30" s="13">
+        <v>2.5039117473648567</v>
+      </c>
+      <c r="AE30" s="13">
+        <v>177.5072030456277</v>
+      </c>
+      <c r="AF30" s="13">
+        <v>234.037801250618</v>
+      </c>
+      <c r="AG30" s="13">
+        <v>80.186777917954856</v>
+      </c>
+      <c r="AH30" s="13">
+        <v>15.798347773551111</v>
+      </c>
+      <c r="AI30" s="13">
+        <v>45.301080248295058</v>
+      </c>
+      <c r="AJ30" s="13">
+        <v>20.424457546742516</v>
+      </c>
+      <c r="AK30" s="13">
+        <v>32.786161894078624</v>
+      </c>
+      <c r="AL30" s="13">
+        <v>428.5346266312402</v>
+      </c>
+      <c r="AM30" s="13">
+        <v>330.022926942124</v>
+      </c>
+      <c r="AN30" s="13">
+        <v>98.511699689116199</v>
+      </c>
+      <c r="AO30" s="13">
+        <v>54.613510019112333</v>
+      </c>
+      <c r="AP30" s="13">
+        <v>18.711854990181845</v>
+      </c>
+      <c r="AQ30" s="13">
+        <v>3.6865977197090776</v>
+      </c>
+      <c r="AR30" s="13">
+        <v>10.571159816048482</v>
+      </c>
+      <c r="AS30" s="13">
+        <v>4.7661160329799994</v>
+      </c>
+      <c r="AT30" s="13">
+        <v>7.6507614219682543</v>
+      </c>
+      <c r="AU30" s="13">
+        <v>233.82</v>
+      </c>
+      <c r="AV30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW30" s="13">
+        <v>41.54</v>
+      </c>
+      <c r="AX30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY30" s="13">
+        <v>73.27</v>
+      </c>
+      <c r="AZ30" s="13">
+        <v>15.21</v>
+      </c>
+      <c r="BA30" s="13">
+        <v>125.16</v>
+      </c>
+      <c r="BB30" s="13">
+        <v>26.02</v>
+      </c>
+      <c r="BC30" s="2">
+        <v>51.078492908649018</v>
+      </c>
+      <c r="BD30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE30" s="2">
+        <v>9.0745042999969208</v>
+      </c>
+      <c r="BF30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG30" s="2">
+        <v>16.005992538776468</v>
+      </c>
+      <c r="BH30" s="2">
+        <v>3.3226579297773995</v>
+      </c>
+      <c r="BI30" s="2">
+        <v>27.341477086846766</v>
+      </c>
+      <c r="BJ30" s="2">
+        <v>5.6841261888762613</v>
+      </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>21</v>
       </c>
@@ -4042,15 +6987,107 @@
       <c r="AC31" s="13">
         <v>6.3666666666666671</v>
       </c>
-      <c r="AD31" s="13"/>
-      <c r="AE31" s="13"/>
-      <c r="AF31" s="13"/>
-      <c r="AG31" s="13"/>
-      <c r="AH31" s="34"/>
-      <c r="AI31" s="34"/>
-      <c r="AJ31" s="34"/>
+      <c r="AD31" s="13">
+        <v>2.2804532360767276</v>
+      </c>
+      <c r="AE31" s="13">
+        <v>224.34725096309222</v>
+      </c>
+      <c r="AF31" s="13">
+        <v>282.91592026132201</v>
+      </c>
+      <c r="AG31" s="13">
+        <v>143.04120117934968</v>
+      </c>
+      <c r="AH31" s="13">
+        <v>37.8597426646472</v>
+      </c>
+      <c r="AI31" s="13">
+        <v>80.362986198410781</v>
+      </c>
+      <c r="AJ31" s="13">
+        <v>20.317788405637327</v>
+      </c>
+      <c r="AK31" s="13">
+        <v>42.639256374251701</v>
+      </c>
+      <c r="AL31" s="13">
+        <v>607.1368950836187</v>
+      </c>
+      <c r="AM31" s="13">
+        <v>463.81686410531898</v>
+      </c>
+      <c r="AN31" s="13">
+        <v>143.3200309782998</v>
+      </c>
+      <c r="AO31" s="13">
+        <v>46.598373867949022</v>
+      </c>
+      <c r="AP31" s="13">
+        <v>23.559958608618103</v>
+      </c>
+      <c r="AQ31" s="13">
+        <v>6.2357835557717047</v>
+      </c>
+      <c r="AR31" s="13">
+        <v>13.236386529819224</v>
+      </c>
+      <c r="AS31" s="13">
+        <v>3.3464921289026646</v>
+      </c>
+      <c r="AT31" s="13">
+        <v>7.0230053089392888</v>
+      </c>
+      <c r="AU31" s="13">
+        <v>479.6</v>
+      </c>
+      <c r="AV31" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW31" s="13">
+        <v>25.14</v>
+      </c>
+      <c r="AX31" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY31" s="13">
+        <v>75.56</v>
+      </c>
+      <c r="AZ31" s="13">
+        <v>30.03</v>
+      </c>
+      <c r="BA31" s="13">
+        <v>25.93</v>
+      </c>
+      <c r="BB31" s="13">
+        <v>50.16</v>
+      </c>
+      <c r="BC31" s="2">
+        <v>100.96129602299678</v>
+      </c>
+      <c r="BD31" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE31" s="2">
+        <v>5.2922580942830253</v>
+      </c>
+      <c r="BF31" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG31" s="2">
+        <v>15.906245887192737</v>
+      </c>
+      <c r="BH31" s="2">
+        <v>6.3216591317151654</v>
+      </c>
+      <c r="BI31" s="2">
+        <v>5.4585621473651091</v>
+      </c>
+      <c r="BJ31" s="2">
+        <v>10.559254813414343</v>
+      </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>20</v>
       </c>
@@ -4138,15 +7175,107 @@
       <c r="AC32" s="13">
         <v>6.61</v>
       </c>
-      <c r="AD32" s="13"/>
-      <c r="AE32" s="13"/>
-      <c r="AF32" s="13"/>
-      <c r="AG32" s="13"/>
-      <c r="AH32" s="34"/>
-      <c r="AI32" s="34"/>
-      <c r="AJ32" s="34"/>
+      <c r="AD32" s="13">
+        <v>2.5169118984165579</v>
+      </c>
+      <c r="AE32" s="13">
+        <v>174.29631464885929</v>
+      </c>
+      <c r="AF32" s="13">
+        <v>189.03731676170864</v>
+      </c>
+      <c r="AG32" s="13">
+        <v>146.96188500507634</v>
+      </c>
+      <c r="AH32" s="13">
+        <v>34.543985591936874</v>
+      </c>
+      <c r="AI32" s="13">
+        <v>72.263767516291338</v>
+      </c>
+      <c r="AJ32" s="13">
+        <v>16.796072320062372</v>
+      </c>
+      <c r="AK32" s="13">
+        <v>37.910271186622161</v>
+      </c>
+      <c r="AL32" s="13">
+        <v>497.51329838169767</v>
+      </c>
+      <c r="AM32" s="13">
+        <v>370.54318735872187</v>
+      </c>
+      <c r="AN32" s="13">
+        <v>126.97011102297584</v>
+      </c>
+      <c r="AO32" s="13">
+        <v>37.996434944876015</v>
+      </c>
+      <c r="AP32" s="13">
+        <v>29.539287790519637</v>
+      </c>
+      <c r="AQ32" s="13">
+        <v>6.9433290937751675</v>
+      </c>
+      <c r="AR32" s="13">
+        <v>14.524992146209884</v>
+      </c>
+      <c r="AS32" s="13">
+        <v>3.3760046966978239</v>
+      </c>
+      <c r="AT32" s="13">
+        <v>7.6199513279214877</v>
+      </c>
+      <c r="AU32" s="13">
+        <v>148.81</v>
+      </c>
+      <c r="AV32" s="13">
+        <v>5.15</v>
+      </c>
+      <c r="AW32" s="13">
+        <v>10.62</v>
+      </c>
+      <c r="AX32" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY32" s="13">
+        <v>90.92</v>
+      </c>
+      <c r="AZ32" s="13">
+        <v>4.82</v>
+      </c>
+      <c r="BA32" s="13">
+        <v>54.06</v>
+      </c>
+      <c r="BB32" s="13">
+        <v>21.93</v>
+      </c>
+      <c r="BC32" s="2">
+        <v>30.869248622933938</v>
+      </c>
+      <c r="BD32" s="2">
+        <v>1.068319537719977</v>
+      </c>
+      <c r="BE32" s="2">
+        <v>2.2030200952594474</v>
+      </c>
+      <c r="BF32" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG32" s="2">
+        <v>18.860507256213655</v>
+      </c>
+      <c r="BH32" s="2">
+        <v>0.99986411103112416</v>
+      </c>
+      <c r="BI32" s="2">
+        <v>11.21424353575572</v>
+      </c>
+      <c r="BJ32" s="2">
+        <v>4.5491742645046784</v>
+      </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>27</v>
       </c>
@@ -4234,12 +7363,107 @@
       <c r="AC33" s="13">
         <v>6.4866666666666672</v>
       </c>
-      <c r="AD33" s="13"/>
-      <c r="AE33" s="2"/>
-      <c r="AF33" s="2"/>
-      <c r="AG33" s="2"/>
+      <c r="AD33" s="13">
+        <v>2.0182039828354497</v>
+      </c>
+      <c r="AE33" s="13">
+        <v>254.70824875185693</v>
+      </c>
+      <c r="AF33" s="13">
+        <v>199.84710946848293</v>
+      </c>
+      <c r="AG33" s="13">
+        <v>104.02899510930146</v>
+      </c>
+      <c r="AH33" s="13">
+        <v>13.536165012423469</v>
+      </c>
+      <c r="AI33" s="13">
+        <v>48.154488068895681</v>
+      </c>
+      <c r="AJ33" s="13">
+        <v>15.239443005594989</v>
+      </c>
+      <c r="AK33" s="13">
+        <v>23.460282808303646</v>
+      </c>
+      <c r="AL33" s="13">
+        <v>404.2664834730021</v>
+      </c>
+      <c r="AM33" s="13">
+        <v>317.41226959020776</v>
+      </c>
+      <c r="AN33" s="13">
+        <v>86.854213882794312</v>
+      </c>
+      <c r="AO33" s="13">
+        <v>49.434498687999493</v>
+      </c>
+      <c r="AP33" s="13">
+        <v>25.732777601447829</v>
+      </c>
+      <c r="AQ33" s="13">
+        <v>3.3483272954354244</v>
+      </c>
+      <c r="AR33" s="13">
+        <v>11.911570718207104</v>
+      </c>
+      <c r="AS33" s="13">
+        <v>3.7696528474670634</v>
+      </c>
+      <c r="AT33" s="13">
+        <v>5.8031728494431025</v>
+      </c>
+      <c r="AU33" s="13">
+        <v>220.78</v>
+      </c>
+      <c r="AV33" s="13">
+        <v>6.69</v>
+      </c>
+      <c r="AW33" s="13">
+        <v>8.6</v>
+      </c>
+      <c r="AX33" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY33" s="13">
+        <v>52.52</v>
+      </c>
+      <c r="AZ33" s="13">
+        <v>3.69</v>
+      </c>
+      <c r="BA33" s="13">
+        <v>11.09</v>
+      </c>
+      <c r="BB33" s="13">
+        <v>29.06</v>
+      </c>
+      <c r="BC33" s="2">
+        <v>50.419020090919865</v>
+      </c>
+      <c r="BD33" s="2">
+        <v>1.5277798913318865</v>
+      </c>
+      <c r="BE33" s="2">
+        <v>1.9639621921456238</v>
+      </c>
+      <c r="BF33" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG33" s="2">
+        <v>11.993871433893974</v>
+      </c>
+      <c r="BH33" s="2">
+        <v>0.84267680104852927</v>
+      </c>
+      <c r="BI33" s="2">
+        <v>2.5325977570808105</v>
+      </c>
+      <c r="BJ33" s="2">
+        <v>6.6363652678781193</v>
+      </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>43</v>
       </c>
@@ -4327,12 +7551,107 @@
       <c r="AC34" s="9">
         <v>7.206666666666667</v>
       </c>
-      <c r="AD34" s="13"/>
-      <c r="AE34" s="2"/>
-      <c r="AF34" s="2"/>
-      <c r="AG34" s="2"/>
+      <c r="AD34" s="13">
+        <v>4.2664522167189762</v>
+      </c>
+      <c r="AE34" s="13">
+        <v>222.60765104468467</v>
+      </c>
+      <c r="AF34" s="13">
+        <v>79.536269621524895</v>
+      </c>
+      <c r="AG34" s="13">
+        <v>19.070880688445953</v>
+      </c>
+      <c r="AH34" s="13">
+        <v>13.026837710937308</v>
+      </c>
+      <c r="AI34" s="13">
+        <v>15.510907116899924</v>
+      </c>
+      <c r="AJ34" s="13">
+        <v>13.561990703526845</v>
+      </c>
+      <c r="AK34" s="13">
+        <v>13.906929272345861</v>
+      </c>
+      <c r="AL34" s="13">
+        <v>154.6138151136808</v>
+      </c>
+      <c r="AM34" s="13">
+        <v>111.63398802090816</v>
+      </c>
+      <c r="AN34" s="13">
+        <v>42.979827092772631</v>
+      </c>
+      <c r="AO34" s="13">
+        <v>51.44189059887394</v>
+      </c>
+      <c r="AP34" s="13">
+        <v>12.334525653108015</v>
+      </c>
+      <c r="AQ34" s="13">
+        <v>8.425403448818102</v>
+      </c>
+      <c r="AR34" s="13">
+        <v>10.032031811319984</v>
+      </c>
+      <c r="AS34" s="13">
+        <v>8.7715258132368721</v>
+      </c>
+      <c r="AT34" s="13">
+        <v>8.9946226746430789</v>
+      </c>
+      <c r="AU34" s="13">
+        <v>78.88</v>
+      </c>
+      <c r="AV34" s="13">
+        <v>10.47</v>
+      </c>
+      <c r="AW34" s="13">
+        <v>7.62</v>
+      </c>
+      <c r="AX34" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY34" s="13">
+        <v>37.49</v>
+      </c>
+      <c r="AZ34" s="13">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="BA34" s="13">
+        <v>0</v>
+      </c>
+      <c r="BB34" s="13">
+        <v>2.08</v>
+      </c>
+      <c r="BC34" s="2">
+        <v>15.645983735901062</v>
+      </c>
+      <c r="BD34" s="2">
+        <v>2.0767425166694236</v>
+      </c>
+      <c r="BE34" s="2">
+        <v>1.5114401124184345</v>
+      </c>
+      <c r="BF34" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG34" s="2">
+        <v>7.4362060124103824</v>
+      </c>
+      <c r="BH34" s="2">
+        <v>0.50579688801404299</v>
+      </c>
+      <c r="BI34" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ34" s="2">
+        <v>0.41257157924282728</v>
+      </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>29</v>
       </c>
@@ -4420,9 +7739,107 @@
       <c r="AC35" s="9">
         <v>6.82</v>
       </c>
-      <c r="AD35" s="34"/>
+      <c r="AD35" s="13">
+        <v>2.7983832267562687</v>
+      </c>
+      <c r="AE35" s="13">
+        <v>234.87052685776271</v>
+      </c>
+      <c r="AF35" s="13">
+        <v>153.00741992033133</v>
+      </c>
+      <c r="AG35" s="13">
+        <v>60.421803224016834</v>
+      </c>
+      <c r="AH35" s="13">
+        <v>15.331450317646356</v>
+      </c>
+      <c r="AI35" s="13">
+        <v>37.519832671075648</v>
+      </c>
+      <c r="AJ35" s="13">
+        <v>15.893244768564147</v>
+      </c>
+      <c r="AK35" s="13">
+        <v>16.341045601411487</v>
+      </c>
+      <c r="AL35" s="13">
+        <v>298.51479650304577</v>
+      </c>
+      <c r="AM35" s="13">
+        <v>228.76067346199451</v>
+      </c>
+      <c r="AN35" s="13">
+        <v>69.754123041051287</v>
+      </c>
+      <c r="AO35" s="13">
+        <v>51.256226395722457</v>
+      </c>
+      <c r="AP35" s="13">
+        <v>20.240806798131477</v>
+      </c>
+      <c r="AQ35" s="13">
+        <v>5.1359096759178327</v>
+      </c>
+      <c r="AR35" s="13">
+        <v>12.5688351500837</v>
+      </c>
+      <c r="AS35" s="13">
+        <v>5.3241061933095795</v>
+      </c>
+      <c r="AT35" s="13">
+        <v>5.474115786834961</v>
+      </c>
+      <c r="AU35" s="13">
+        <v>95.92</v>
+      </c>
+      <c r="AV35" s="13">
+        <v>22.34</v>
+      </c>
+      <c r="AW35" s="13">
+        <v>15.79</v>
+      </c>
+      <c r="AX35" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY35" s="13">
+        <v>79.48</v>
+      </c>
+      <c r="AZ35" s="13">
+        <v>8.82</v>
+      </c>
+      <c r="BA35" s="13">
+        <v>30.21</v>
+      </c>
+      <c r="BB35" s="13">
+        <v>15.96</v>
+      </c>
+      <c r="BC35" s="2">
+        <v>21.283720961192103</v>
+      </c>
+      <c r="BD35" s="2">
+        <v>4.957030090419428</v>
+      </c>
+      <c r="BE35" s="2">
+        <v>3.503648394257957</v>
+      </c>
+      <c r="BF35" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG35" s="2">
+        <v>17.635843848994458</v>
+      </c>
+      <c r="BH35" s="2">
+        <v>1.9570727572739193</v>
+      </c>
+      <c r="BI35" s="2">
+        <v>6.703307029166111</v>
+      </c>
+      <c r="BJ35" s="2">
+        <v>3.5413697512575681</v>
+      </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>37</v>
       </c>
@@ -4510,9 +7927,107 @@
       <c r="AC36" s="9">
         <v>7.0066666666666668</v>
       </c>
-      <c r="AD36" s="34"/>
+      <c r="AD36" s="13">
+        <v>2.9751116795203902</v>
+      </c>
+      <c r="AE36" s="13">
+        <v>201.16750373882937</v>
+      </c>
+      <c r="AF36" s="13">
+        <v>211.44507223214586</v>
+      </c>
+      <c r="AG36" s="13">
+        <v>120.90395600018084</v>
+      </c>
+      <c r="AH36" s="13">
+        <v>18.582847603571793</v>
+      </c>
+      <c r="AI36" s="13">
+        <v>56.010156848154629</v>
+      </c>
+      <c r="AJ36" s="13">
+        <v>19.178526919637928</v>
+      </c>
+      <c r="AK36" s="13">
+        <v>33.946406037042976</v>
+      </c>
+      <c r="AL36" s="13">
+        <v>460.066965640734</v>
+      </c>
+      <c r="AM36" s="13">
+        <v>350.93187583589844</v>
+      </c>
+      <c r="AN36" s="13">
+        <v>109.13508980483553</v>
+      </c>
+      <c r="AO36" s="13">
+        <v>45.95962936344862</v>
+      </c>
+      <c r="AP36" s="13">
+        <v>26.27964297149617</v>
+      </c>
+      <c r="AQ36" s="13">
+        <v>4.0391614680900885</v>
+      </c>
+      <c r="AR36" s="13">
+        <v>12.174348742937767</v>
+      </c>
+      <c r="AS36" s="13">
+        <v>4.1686381226976481</v>
+      </c>
+      <c r="AT36" s="13">
+        <v>7.3785793313297141</v>
+      </c>
+      <c r="AU36" s="13">
+        <v>139.37</v>
+      </c>
+      <c r="AV36" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW36" s="13">
+        <v>24.42</v>
+      </c>
+      <c r="AX36" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY36" s="13">
+        <v>64.680000000000007</v>
+      </c>
+      <c r="AZ36" s="13">
+        <v>11.08</v>
+      </c>
+      <c r="BA36" s="13">
+        <v>127.08</v>
+      </c>
+      <c r="BB36" s="13">
+        <v>19.41</v>
+      </c>
+      <c r="BC36" s="2">
+        <v>30.482725143984329</v>
+      </c>
+      <c r="BD36" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE36" s="2">
+        <v>5.3410931191511617</v>
+      </c>
+      <c r="BF36" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG36" s="2">
+        <v>14.146679072346318</v>
+      </c>
+      <c r="BH36" s="2">
+        <v>2.4233952399752194</v>
+      </c>
+      <c r="BI36" s="2">
+        <v>27.794681145852973</v>
+      </c>
+      <c r="BJ36" s="2">
+        <v>4.2453160295955792</v>
+      </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
         <v>44</v>
       </c>
@@ -4600,9 +8115,107 @@
       <c r="AC37" s="9">
         <v>6.7333333333333334</v>
       </c>
-      <c r="AD37" s="34"/>
+      <c r="AD37" s="13">
+        <v>2.7595346983394342</v>
+      </c>
+      <c r="AE37" s="13">
+        <v>179.31129748795848</v>
+      </c>
+      <c r="AF37" s="13">
+        <v>175.82600786133258</v>
+      </c>
+      <c r="AG37" s="13">
+        <v>101.2207557261975</v>
+      </c>
+      <c r="AH37" s="13">
+        <v>15.822440891962376</v>
+      </c>
+      <c r="AI37" s="13">
+        <v>68.724102369743164</v>
+      </c>
+      <c r="AJ37" s="13">
+        <v>21.457206019059164</v>
+      </c>
+      <c r="AK37" s="13">
+        <v>36.935424882834525</v>
+      </c>
+      <c r="AL37" s="13">
+        <v>419.9859377511292</v>
+      </c>
+      <c r="AM37" s="13">
+        <v>292.86920447949251</v>
+      </c>
+      <c r="AN37" s="13">
+        <v>127.11673327163686</v>
+      </c>
+      <c r="AO37" s="13">
+        <v>41.864736901148746</v>
+      </c>
+      <c r="AP37" s="13">
+        <v>24.100986873083787</v>
+      </c>
+      <c r="AQ37" s="13">
+        <v>3.7673739689204235</v>
+      </c>
+      <c r="AR37" s="13">
+        <v>16.363429389501839</v>
+      </c>
+      <c r="AS37" s="13">
+        <v>5.1090296341717147</v>
+      </c>
+      <c r="AT37" s="13">
+        <v>8.7944432331735172</v>
+      </c>
+      <c r="AU37" s="13">
+        <v>158.52000000000001</v>
+      </c>
+      <c r="AV37" s="13">
+        <v>34.65</v>
+      </c>
+      <c r="AW37" s="13">
+        <v>130.86000000000001</v>
+      </c>
+      <c r="AX37" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY37" s="13">
+        <v>70.53</v>
+      </c>
+      <c r="AZ37" s="13">
+        <v>5.13</v>
+      </c>
+      <c r="BA37" s="13">
+        <v>55.81</v>
+      </c>
+      <c r="BB37" s="13">
+        <v>15.7</v>
+      </c>
+      <c r="BC37" s="2">
+        <v>31.844553168046801</v>
+      </c>
+      <c r="BD37" s="2">
+        <v>6.9607227307142407</v>
+      </c>
+      <c r="BE37" s="2">
+        <v>26.288028183009107</v>
+      </c>
+      <c r="BF37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG37" s="2">
+        <v>14.16853605186942</v>
+      </c>
+      <c r="BH37" s="2">
+        <v>1.0305485601317188</v>
+      </c>
+      <c r="BI37" s="2">
+        <v>11.211484432933963</v>
+      </c>
+      <c r="BJ37" s="2">
+        <v>3.1539205446526282</v>
+      </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>41</v>
       </c>
@@ -4690,9 +8303,107 @@
       <c r="AC38" s="9">
         <v>6.7766666666666673</v>
       </c>
-      <c r="AD38" s="34"/>
+      <c r="AD38" s="13">
+        <v>2.5415448992991658</v>
+      </c>
+      <c r="AE38" s="13">
+        <v>186.33761836603529</v>
+      </c>
+      <c r="AF38" s="13">
+        <v>178.74162268123445</v>
+      </c>
+      <c r="AG38" s="13">
+        <v>73.143371896844386</v>
+      </c>
+      <c r="AH38" s="13">
+        <v>15.929834119073131</v>
+      </c>
+      <c r="AI38" s="13">
+        <v>36.720441066956539</v>
+      </c>
+      <c r="AJ38" s="13">
+        <v>20.050497090341505</v>
+      </c>
+      <c r="AK38" s="13">
+        <v>25.446639190887019</v>
+      </c>
+      <c r="AL38" s="13">
+        <v>350.03240604533704</v>
+      </c>
+      <c r="AM38" s="13">
+        <v>267.81482869715194</v>
+      </c>
+      <c r="AN38" s="13">
+        <v>82.217577348185074</v>
+      </c>
+      <c r="AO38" s="13">
+        <v>51.064307073923722</v>
+      </c>
+      <c r="AP38" s="13">
+        <v>20.896171506866331</v>
+      </c>
+      <c r="AQ38" s="13">
+        <v>4.5509598094211485</v>
+      </c>
+      <c r="AR38" s="13">
+        <v>10.490583281080671</v>
+      </c>
+      <c r="AS38" s="13">
+        <v>5.7281830893521661</v>
+      </c>
+      <c r="AT38" s="13">
+        <v>7.2697952393559548</v>
+      </c>
+      <c r="AU38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW38" s="13">
+        <v>24.17</v>
+      </c>
+      <c r="AX38" s="13">
+        <v>1.7</v>
+      </c>
+      <c r="AY38" s="13">
+        <v>85.91</v>
+      </c>
+      <c r="AZ38" s="13">
+        <v>18.89</v>
+      </c>
+      <c r="BA38" s="13">
+        <v>79</v>
+      </c>
+      <c r="BB38" s="13">
+        <v>31.59</v>
+      </c>
+      <c r="BC38" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD38" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE38" s="2">
+        <v>4.6878964958859726</v>
+      </c>
+      <c r="BF38" s="2">
+        <v>0.32972379160141296</v>
+      </c>
+      <c r="BG38" s="2">
+        <v>16.662688786163169</v>
+      </c>
+      <c r="BH38" s="2">
+        <v>3.6638131902062891</v>
+      </c>
+      <c r="BI38" s="2">
+        <v>15.322458550889193</v>
+      </c>
+      <c r="BJ38" s="2">
+        <v>6.1270438686403743</v>
+      </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>19</v>
       </c>
@@ -4780,9 +8491,107 @@
       <c r="AC39" s="9">
         <v>6.6700000000000008</v>
       </c>
-      <c r="AD39" s="34"/>
+      <c r="AD39" s="13">
+        <v>2.2205846020405127</v>
+      </c>
+      <c r="AE39" s="13">
+        <v>162.54577365658784</v>
+      </c>
+      <c r="AF39" s="13">
+        <v>167.98915501814307</v>
+      </c>
+      <c r="AG39" s="13">
+        <v>69.87389574576784</v>
+      </c>
+      <c r="AH39" s="13">
+        <v>15.929202168521515</v>
+      </c>
+      <c r="AI39" s="13">
+        <v>84.693920439550951</v>
+      </c>
+      <c r="AJ39" s="13">
+        <v>15.848337813087188</v>
+      </c>
+      <c r="AK39" s="13">
+        <v>26.395019790267792</v>
+      </c>
+      <c r="AL39" s="13">
+        <v>380.72953097533832</v>
+      </c>
+      <c r="AM39" s="13">
+        <v>253.7922529324324</v>
+      </c>
+      <c r="AN39" s="13">
+        <v>126.93727804290593</v>
+      </c>
+      <c r="AO39" s="13">
+        <v>44.122964296411389</v>
+      </c>
+      <c r="AP39" s="13">
+        <v>18.352633578689726</v>
+      </c>
+      <c r="AQ39" s="13">
+        <v>4.1838630504218299</v>
+      </c>
+      <c r="AR39" s="13">
+        <v>22.245167119709709</v>
+      </c>
+      <c r="AS39" s="13">
+        <v>4.1626237325188624</v>
+      </c>
+      <c r="AT39" s="13">
+        <v>6.9327482222484926</v>
+      </c>
+      <c r="AU39" s="13">
+        <v>149.35</v>
+      </c>
+      <c r="AV39" s="13">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="AW39" s="13">
+        <v>17.170000000000002</v>
+      </c>
+      <c r="AX39" s="13">
+        <v>0.78</v>
+      </c>
+      <c r="AY39" s="13">
+        <v>58</v>
+      </c>
+      <c r="AZ39" s="13">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="BA39" s="13">
+        <v>101.09</v>
+      </c>
+      <c r="BB39" s="13">
+        <v>29.73</v>
+      </c>
+      <c r="BC39" s="2">
+        <v>33.526570622409295</v>
+      </c>
+      <c r="BD39" s="2">
+        <v>1.8048451811461044</v>
+      </c>
+      <c r="BE39" s="2">
+        <v>3.8543770846117686</v>
+      </c>
+      <c r="BF39" s="2">
+        <v>0.17509692055895046</v>
+      </c>
+      <c r="BG39" s="2">
+        <v>13.020027426178368</v>
+      </c>
+      <c r="BH39" s="2">
+        <v>4.0070256820221362</v>
+      </c>
+      <c r="BI39" s="2">
+        <v>22.693009870902952</v>
+      </c>
+      <c r="BJ39" s="2">
+        <v>6.6738864720738418</v>
+      </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
         <v>45</v>
       </c>
@@ -4870,9 +8679,107 @@
       <c r="AC40" s="9">
         <v>6.9533333333333331</v>
       </c>
-      <c r="AD40" s="34"/>
+      <c r="AD40" s="13">
+        <v>2.2010825728286232</v>
+      </c>
+      <c r="AE40" s="13">
+        <v>157.86716204811376</v>
+      </c>
+      <c r="AF40" s="13">
+        <v>243.99101920838675</v>
+      </c>
+      <c r="AG40" s="13">
+        <v>51.615636917045215</v>
+      </c>
+      <c r="AH40" s="13">
+        <v>14.691140440885693</v>
+      </c>
+      <c r="AI40" s="13">
+        <v>36.599249476487337</v>
+      </c>
+      <c r="AJ40" s="13">
+        <v>18.643457294207302</v>
+      </c>
+      <c r="AK40" s="13">
+        <v>23.760745803371695</v>
+      </c>
+      <c r="AL40" s="13">
+        <v>389.30124914038402</v>
+      </c>
+      <c r="AM40" s="13">
+        <v>310.29779656631769</v>
+      </c>
+      <c r="AN40" s="13">
+        <v>79.00345257406633</v>
+      </c>
+      <c r="AO40" s="13">
+        <v>62.674091014899965</v>
+      </c>
+      <c r="AP40" s="13">
+        <v>13.258533598599461</v>
+      </c>
+      <c r="AQ40" s="13">
+        <v>3.7737203446752856</v>
+      </c>
+      <c r="AR40" s="13">
+        <v>9.4012668999398628</v>
+      </c>
+      <c r="AS40" s="13">
+        <v>4.788953884780466</v>
+      </c>
+      <c r="AT40" s="13">
+        <v>6.1034342571049525</v>
+      </c>
+      <c r="AU40" s="13">
+        <v>82.49</v>
+      </c>
+      <c r="AV40" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW40" s="13">
+        <v>13.87</v>
+      </c>
+      <c r="AX40" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY40" s="13">
+        <v>72.89</v>
+      </c>
+      <c r="AZ40" s="13">
+        <v>16.09</v>
+      </c>
+      <c r="BA40" s="13">
+        <v>71</v>
+      </c>
+      <c r="BB40" s="13">
+        <v>18.68</v>
+      </c>
+      <c r="BC40" s="2">
+        <v>18.397519815889741</v>
+      </c>
+      <c r="BD40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE40" s="2">
+        <v>3.0933882876274783</v>
+      </c>
+      <c r="BF40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG40" s="2">
+        <v>16.256457987394874</v>
+      </c>
+      <c r="BH40" s="2">
+        <v>3.5885088354669166</v>
+      </c>
+      <c r="BI40" s="2">
+        <v>15.834936439909949</v>
+      </c>
+      <c r="BJ40" s="2">
+        <v>4.1661494746129275</v>
+      </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>40</v>
       </c>
@@ -4960,9 +8867,107 @@
       <c r="AC41" s="9">
         <v>6.8500000000000005</v>
       </c>
-      <c r="AD41" s="34"/>
+      <c r="AD41" s="13">
+        <v>2.3856820899767448</v>
+      </c>
+      <c r="AE41" s="13">
+        <v>160.25673584372163</v>
+      </c>
+      <c r="AF41" s="13">
+        <v>84.332999826753948</v>
+      </c>
+      <c r="AG41" s="13">
+        <v>43.411807783685887</v>
+      </c>
+      <c r="AH41" s="13">
+        <v>13.031662856371197</v>
+      </c>
+      <c r="AI41" s="13">
+        <v>19.442730981951723</v>
+      </c>
+      <c r="AJ41" s="13">
+        <v>13.450504048112041</v>
+      </c>
+      <c r="AK41" s="13">
+        <v>16.480077966777213</v>
+      </c>
+      <c r="AL41" s="13">
+        <v>190.149783463652</v>
+      </c>
+      <c r="AM41" s="13">
+        <v>140.77647046681102</v>
+      </c>
+      <c r="AN41" s="13">
+        <v>49.373312996840966</v>
+      </c>
+      <c r="AO41" s="13">
+        <v>44.350826117493099</v>
+      </c>
+      <c r="AP41" s="13">
+        <v>22.830321966674369</v>
+      </c>
+      <c r="AQ41" s="13">
+        <v>6.8533671819101807</v>
+      </c>
+      <c r="AR41" s="13">
+        <v>10.224955625925437</v>
+      </c>
+      <c r="AS41" s="13">
+        <v>7.0736362687907901</v>
+      </c>
+      <c r="AT41" s="13">
+        <v>8.6668928392061275</v>
+      </c>
+      <c r="AU41" s="13">
+        <v>251.71</v>
+      </c>
+      <c r="AV41" s="13">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="AW41" s="13">
+        <v>17.18</v>
+      </c>
+      <c r="AX41" s="13">
+        <v>3.37</v>
+      </c>
+      <c r="AY41" s="13">
+        <v>62.24</v>
+      </c>
+      <c r="AZ41" s="13">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="BA41" s="13">
+        <v>0</v>
+      </c>
+      <c r="BB41" s="13">
+        <v>17.059999999999999</v>
+      </c>
+      <c r="BC41" s="2">
+        <v>55.292327052939839</v>
+      </c>
+      <c r="BD41" s="2">
+        <v>2.2230278883467127</v>
+      </c>
+      <c r="BE41" s="2">
+        <v>3.7738754072921474</v>
+      </c>
+      <c r="BF41" s="2">
+        <v>0.74027707349095095</v>
+      </c>
+      <c r="BG41" s="2">
+        <v>13.672060846907058</v>
+      </c>
+      <c r="BH41" s="2">
+        <v>2.1153911625275543</v>
+      </c>
+      <c r="BI41" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ41" s="2">
+        <v>3.7475153928058229</v>
+      </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A42" s="28" t="s">
         <v>28</v>
       </c>
@@ -5050,9 +9055,107 @@
       <c r="AC42" s="13">
         <v>6.873333333333334</v>
       </c>
-      <c r="AD42" s="34"/>
+      <c r="AD42" s="13">
+        <v>2.6184268800461528</v>
+      </c>
+      <c r="AE42" s="13">
+        <v>254.5932266722269</v>
+      </c>
+      <c r="AF42" s="13">
+        <v>160.3179488192566</v>
+      </c>
+      <c r="AG42" s="13">
+        <v>40.124604106586204</v>
+      </c>
+      <c r="AH42" s="13">
+        <v>12.005102563372109</v>
+      </c>
+      <c r="AI42" s="13">
+        <v>24.017212533037231</v>
+      </c>
+      <c r="AJ42" s="13">
+        <v>12.431198442417625</v>
+      </c>
+      <c r="AK42" s="13">
+        <v>17.71820477636178</v>
+      </c>
+      <c r="AL42" s="13">
+        <v>266.61427124103159</v>
+      </c>
+      <c r="AM42" s="13">
+        <v>212.44765548921492</v>
+      </c>
+      <c r="AN42" s="13">
+        <v>54.166615751816629</v>
+      </c>
+      <c r="AO42" s="13">
+        <v>60.131045526187073</v>
+      </c>
+      <c r="AP42" s="13">
+        <v>15.049683544626053</v>
+      </c>
+      <c r="AQ42" s="13">
+        <v>4.502798183867263</v>
+      </c>
+      <c r="AR42" s="13">
+        <v>9.0082246615090469</v>
+      </c>
+      <c r="AS42" s="13">
+        <v>4.6626155398783018</v>
+      </c>
+      <c r="AT42" s="13">
+        <v>6.6456325439322441</v>
+      </c>
+      <c r="AU42" s="13">
+        <v>284.82</v>
+      </c>
+      <c r="AV42" s="13">
+        <v>32.49</v>
+      </c>
+      <c r="AW42" s="13">
+        <v>86.61</v>
+      </c>
+      <c r="AX42" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY42" s="13">
+        <v>71.16</v>
+      </c>
+      <c r="AZ42" s="13">
+        <v>11</v>
+      </c>
+      <c r="BA42" s="13">
+        <v>0</v>
+      </c>
+      <c r="BB42" s="13">
+        <v>13.71</v>
+      </c>
+      <c r="BC42" s="2">
+        <v>65.623362138973889</v>
+      </c>
+      <c r="BD42" s="2">
+        <v>7.4857911519389857</v>
+      </c>
+      <c r="BE42" s="2">
+        <v>19.955197650644365</v>
+      </c>
+      <c r="BF42" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG42" s="2">
+        <v>16.395472402954081</v>
+      </c>
+      <c r="BH42" s="2">
+        <v>2.5344322151840202</v>
+      </c>
+      <c r="BI42" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ42" s="2">
+        <v>3.1588241518339024</v>
+      </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
         <v>32</v>
       </c>
@@ -5140,9 +9243,107 @@
       <c r="AC43" s="13">
         <v>6.6433333333333335</v>
       </c>
-      <c r="AD43" s="34"/>
+      <c r="AD43" s="13">
+        <v>2.4043525502638263</v>
+      </c>
+      <c r="AE43" s="13">
+        <v>216.36618856087745</v>
+      </c>
+      <c r="AF43" s="13">
+        <v>176.86646382862418</v>
+      </c>
+      <c r="AG43" s="13">
+        <v>69.813233167339547</v>
+      </c>
+      <c r="AH43" s="13">
+        <v>16.208702256786967</v>
+      </c>
+      <c r="AI43" s="13">
+        <v>41.355595454600866</v>
+      </c>
+      <c r="AJ43" s="13">
+        <v>22.607776098719647</v>
+      </c>
+      <c r="AK43" s="13">
+        <v>37.394682428618495</v>
+      </c>
+      <c r="AL43" s="13">
+        <v>364.2464532346898</v>
+      </c>
+      <c r="AM43" s="13">
+        <v>262.88839925275073</v>
+      </c>
+      <c r="AN43" s="13">
+        <v>101.35805398193901</v>
+      </c>
+      <c r="AO43" s="13">
+        <v>48.556811537342902</v>
+      </c>
+      <c r="AP43" s="13">
+        <v>19.166482623883716</v>
+      </c>
+      <c r="AQ43" s="13">
+        <v>4.4499272711774198</v>
+      </c>
+      <c r="AR43" s="13">
+        <v>11.353740053566096</v>
+      </c>
+      <c r="AS43" s="13">
+        <v>6.206725116456548</v>
+      </c>
+      <c r="AT43" s="13">
+        <v>10.266313397573292</v>
+      </c>
+      <c r="AU43" s="13">
+        <v>214.44</v>
+      </c>
+      <c r="AV43" s="13">
+        <v>53.55</v>
+      </c>
+      <c r="AW43" s="13">
+        <v>97.85</v>
+      </c>
+      <c r="AX43" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY43" s="13">
+        <v>90.04</v>
+      </c>
+      <c r="AZ43" s="13">
+        <v>30.89</v>
+      </c>
+      <c r="BA43" s="13">
+        <v>39.119999999999997</v>
+      </c>
+      <c r="BB43" s="13">
+        <v>27.74</v>
+      </c>
+      <c r="BC43" s="2">
+        <v>46.283435175432793</v>
+      </c>
+      <c r="BD43" s="2">
+        <v>11.55790875603631</v>
+      </c>
+      <c r="BE43" s="2">
+        <v>21.119353347864667</v>
+      </c>
+      <c r="BF43" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG43" s="2">
+        <v>19.433690091382061</v>
+      </c>
+      <c r="BH43" s="2">
+        <v>6.6671111386360709</v>
+      </c>
+      <c r="BI43" s="2">
+        <v>8.4434246598719014</v>
+      </c>
+      <c r="BJ43" s="2">
+        <v>5.9872341529868756</v>
+      </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>46</v>
       </c>
@@ -5230,9 +9431,107 @@
       <c r="AC44" s="13">
         <v>6.78</v>
       </c>
-      <c r="AD44" s="34"/>
+      <c r="AD44" s="13">
+        <v>3.2133616659402744</v>
+      </c>
+      <c r="AE44" s="13">
+        <v>188.23430131328598</v>
+      </c>
+      <c r="AF44" s="13">
+        <v>144.72094876176075</v>
+      </c>
+      <c r="AG44" s="13">
+        <v>39.379086560977235</v>
+      </c>
+      <c r="AH44" s="13">
+        <v>15.018600736056415</v>
+      </c>
+      <c r="AI44" s="13">
+        <v>23.315788205064273</v>
+      </c>
+      <c r="AJ44" s="13">
+        <v>14.997136478241824</v>
+      </c>
+      <c r="AK44" s="13">
+        <v>16.424214137270898</v>
+      </c>
+      <c r="AL44" s="13">
+        <v>253.85577487937141</v>
+      </c>
+      <c r="AM44" s="13">
+        <v>199.11863605879446</v>
+      </c>
+      <c r="AN44" s="13">
+        <v>54.737138820576995</v>
+      </c>
+      <c r="AO44" s="13">
+        <v>57.009122140526472</v>
+      </c>
+      <c r="AP44" s="13">
+        <v>15.512385558173575</v>
+      </c>
+      <c r="AQ44" s="13">
+        <v>5.9161942418654991</v>
+      </c>
+      <c r="AR44" s="13">
+        <v>9.1846593665807283</v>
+      </c>
+      <c r="AS44" s="13">
+        <v>5.907738945615181</v>
+      </c>
+      <c r="AT44" s="13">
+        <v>6.4698997472385447</v>
+      </c>
+      <c r="AU44" s="13">
+        <v>158.33000000000001</v>
+      </c>
+      <c r="AV44" s="13">
+        <v>17.98</v>
+      </c>
+      <c r="AW44" s="13">
+        <v>129.25</v>
+      </c>
+      <c r="AX44" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY44" s="13">
+        <v>88.84</v>
+      </c>
+      <c r="AZ44" s="13">
+        <v>11.41</v>
+      </c>
+      <c r="BA44" s="13">
+        <v>137.99</v>
+      </c>
+      <c r="BB44" s="13">
+        <v>25.74</v>
+      </c>
+      <c r="BC44" s="2">
+        <v>36.160972155488423</v>
+      </c>
+      <c r="BD44" s="2">
+        <v>4.1064503212005423</v>
+      </c>
+      <c r="BE44" s="2">
+        <v>29.519393994169636</v>
+      </c>
+      <c r="BF44" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG44" s="2">
+        <v>20.290158316766192</v>
+      </c>
+      <c r="BH44" s="2">
+        <v>2.6059287077251492</v>
+      </c>
+      <c r="BI44" s="2">
+        <v>31.515521680893368</v>
+      </c>
+      <c r="BJ44" s="2">
+        <v>5.8787559103282501</v>
+      </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
         <v>47</v>
       </c>
@@ -5320,9 +9619,107 @@
       <c r="AC45" s="13">
         <v>6.9966666666666661</v>
       </c>
-      <c r="AD45" s="34"/>
+      <c r="AD45" s="13">
+        <v>3.3454436495597744</v>
+      </c>
+      <c r="AE45" s="13">
+        <v>207.67507469035641</v>
+      </c>
+      <c r="AF45" s="13">
+        <v>80.291448557847218</v>
+      </c>
+      <c r="AG45" s="13">
+        <v>35.669825146388078</v>
+      </c>
+      <c r="AH45" s="13">
+        <v>16.357273515727506</v>
+      </c>
+      <c r="AI45" s="13">
+        <v>24.837189762643902</v>
+      </c>
+      <c r="AJ45" s="13">
+        <v>16.676579631937869</v>
+      </c>
+      <c r="AK45" s="13">
+        <v>21.864231954328837</v>
+      </c>
+      <c r="AL45" s="13">
+        <v>195.69654856887337</v>
+      </c>
+      <c r="AM45" s="13">
+        <v>132.31854721996277</v>
+      </c>
+      <c r="AN45" s="13">
+        <v>63.378001348910601</v>
+      </c>
+      <c r="AO45" s="13">
+        <v>41.028546055113218</v>
+      </c>
+      <c r="AP45" s="13">
+        <v>18.227109985966081</v>
+      </c>
+      <c r="AQ45" s="13">
+        <v>8.3584885044463277</v>
+      </c>
+      <c r="AR45" s="13">
+        <v>12.691685134090504</v>
+      </c>
+      <c r="AS45" s="13">
+        <v>8.5216524020957483</v>
+      </c>
+      <c r="AT45" s="13">
+        <v>11.172517918288145</v>
+      </c>
+      <c r="AU45" s="13">
+        <v>211.03</v>
+      </c>
+      <c r="AV45" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW45" s="13">
+        <v>15.38</v>
+      </c>
+      <c r="AX45" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY45" s="13">
+        <v>127.15</v>
+      </c>
+      <c r="AZ45" s="13">
+        <v>6.43</v>
+      </c>
+      <c r="BA45" s="13">
+        <v>69.760000000000005</v>
+      </c>
+      <c r="BB45" s="13">
+        <v>26.86</v>
+      </c>
+      <c r="BC45" s="2">
+        <v>46.693382605904056</v>
+      </c>
+      <c r="BD45" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE45" s="2">
+        <v>3.4030432852144457</v>
+      </c>
+      <c r="BF45" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG45" s="2">
+        <v>28.133742114110326</v>
+      </c>
+      <c r="BH45" s="2">
+        <v>1.4227287596832827</v>
+      </c>
+      <c r="BI45" s="2">
+        <v>15.435390089503233</v>
+      </c>
+      <c r="BJ45" s="2">
+        <v>5.943156218521457</v>
+      </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>39</v>
       </c>
@@ -5410,9 +9807,107 @@
       <c r="AC46" s="13">
         <v>6.72</v>
       </c>
-      <c r="AD46" s="34"/>
+      <c r="AD46" s="13">
+        <v>1.9753367609964168</v>
+      </c>
+      <c r="AE46" s="13">
+        <v>216.62257219690076</v>
+      </c>
+      <c r="AF46" s="13">
+        <v>195.21031772847209</v>
+      </c>
+      <c r="AG46" s="13">
+        <v>90.152340831783448</v>
+      </c>
+      <c r="AH46" s="13">
+        <v>15.434805404916363</v>
+      </c>
+      <c r="AI46" s="13">
+        <v>34.394518018180442</v>
+      </c>
+      <c r="AJ46" s="13">
+        <v>15.868705517294353</v>
+      </c>
+      <c r="AK46" s="13">
+        <v>23.911092397272611</v>
+      </c>
+      <c r="AL46" s="13">
+        <v>374.97177989791925</v>
+      </c>
+      <c r="AM46" s="13">
+        <v>300.79746396517186</v>
+      </c>
+      <c r="AN46" s="13">
+        <v>74.174315932747405</v>
+      </c>
+      <c r="AO46" s="13">
+        <v>52.060002430480317</v>
+      </c>
+      <c r="AP46" s="13">
+        <v>24.042433501616078</v>
+      </c>
+      <c r="AQ46" s="13">
+        <v>4.1162578712238744</v>
+      </c>
+      <c r="AR46" s="13">
+        <v>9.1725617398578265</v>
+      </c>
+      <c r="AS46" s="13">
+        <v>4.2319732758594215</v>
+      </c>
+      <c r="AT46" s="13">
+        <v>6.3767711809624892</v>
+      </c>
+      <c r="AU46" s="13">
+        <v>164.84</v>
+      </c>
+      <c r="AV46" s="13">
+        <v>6.59</v>
+      </c>
+      <c r="AW46" s="13">
+        <v>22.47</v>
+      </c>
+      <c r="AX46" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY46" s="13">
+        <v>84.03</v>
+      </c>
+      <c r="AZ46" s="13">
+        <v>20.84</v>
+      </c>
+      <c r="BA46" s="13">
+        <v>39</v>
+      </c>
+      <c r="BB46" s="13">
+        <v>35.159999999999997</v>
+      </c>
+      <c r="BC46" s="2">
+        <v>37.668660058851856</v>
+      </c>
+      <c r="BD46" s="2">
+        <v>1.5059237429497312</v>
+      </c>
+      <c r="BE46" s="2">
+        <v>5.1347657821062915</v>
+      </c>
+      <c r="BF46" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG46" s="2">
+        <v>19.202241596368125</v>
+      </c>
+      <c r="BH46" s="2">
+        <v>4.7622838851399703</v>
+      </c>
+      <c r="BI46" s="2">
+        <v>8.9121435470469681</v>
+      </c>
+      <c r="BJ46" s="2">
+        <v>8.0346401824146501</v>
+      </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
         <v>43</v>
       </c>
@@ -5500,9 +9995,107 @@
       <c r="AC47" s="13">
         <v>6.8500000000000005</v>
       </c>
-      <c r="AD47" s="34"/>
+      <c r="AD47" s="13">
+        <v>2.6220211494640631</v>
+      </c>
+      <c r="AE47" s="13">
+        <v>192.21908510600824</v>
+      </c>
+      <c r="AF47" s="13">
+        <v>147.09970708273462</v>
+      </c>
+      <c r="AG47" s="13">
+        <v>75.790561577701496</v>
+      </c>
+      <c r="AH47" s="13">
+        <v>20.340561335839705</v>
+      </c>
+      <c r="AI47" s="13">
+        <v>46.687677732102536</v>
+      </c>
+      <c r="AJ47" s="13">
+        <v>14.958671758398649</v>
+      </c>
+      <c r="AK47" s="13">
+        <v>20.578065970732631</v>
+      </c>
+      <c r="AL47" s="13">
+        <v>325.45524545750965</v>
+      </c>
+      <c r="AM47" s="13">
+        <v>243.23082999627582</v>
+      </c>
+      <c r="AN47" s="13">
+        <v>82.224415461233818</v>
+      </c>
+      <c r="AO47" s="13">
+        <v>45.198136805553339</v>
+      </c>
+      <c r="AP47" s="13">
+        <v>23.287552631440519</v>
+      </c>
+      <c r="AQ47" s="13">
+        <v>6.2498797053480892</v>
+      </c>
+      <c r="AR47" s="13">
+        <v>14.345344984829236</v>
+      </c>
+      <c r="AS47" s="13">
+        <v>4.5962300399769109</v>
+      </c>
+      <c r="AT47" s="13">
+        <v>6.3228558328519044</v>
+      </c>
+      <c r="AU47" s="13">
+        <v>134.03</v>
+      </c>
+      <c r="AV47" s="13">
+        <v>12.65</v>
+      </c>
+      <c r="AW47" s="13">
+        <v>12.73</v>
+      </c>
+      <c r="AX47" s="13">
+        <v>3.55</v>
+      </c>
+      <c r="AY47" s="13">
+        <v>115.65</v>
+      </c>
+      <c r="AZ47" s="13">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="BA47" s="13">
+        <v>28.32</v>
+      </c>
+      <c r="BB47" s="13">
+        <v>24.1</v>
+      </c>
+      <c r="BC47" s="2">
+        <v>27.144431054699432</v>
+      </c>
+      <c r="BD47" s="2">
+        <v>2.5619417506673714</v>
+      </c>
+      <c r="BE47" s="2">
+        <v>2.5781437538336474</v>
+      </c>
+      <c r="BF47" s="2">
+        <v>0.71896389050349163</v>
+      </c>
+      <c r="BG47" s="2">
+        <v>23.42202082724755</v>
+      </c>
+      <c r="BH47" s="2">
+        <v>2.0677806540959578</v>
+      </c>
+      <c r="BI47" s="2">
+        <v>5.735509120861658</v>
+      </c>
+      <c r="BJ47" s="2">
+        <v>4.8808534538406052</v>
+      </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>44</v>
       </c>
@@ -5590,9 +10183,107 @@
       <c r="AC48" s="13">
         <v>6.5966666666666667</v>
       </c>
-      <c r="AD48" s="34"/>
+      <c r="AD48" s="13">
+        <v>2.5809425263177213</v>
+      </c>
+      <c r="AE48" s="13">
+        <v>235.58019200647257</v>
+      </c>
+      <c r="AF48" s="13">
+        <v>159.13427546421258</v>
+      </c>
+      <c r="AG48" s="13">
+        <v>59.132395267349885</v>
+      </c>
+      <c r="AH48" s="13">
+        <v>15.953620124193607</v>
+      </c>
+      <c r="AI48" s="13">
+        <v>33.147067183283347</v>
+      </c>
+      <c r="AJ48" s="13">
+        <v>17.902460672326495</v>
+      </c>
+      <c r="AK48" s="13">
+        <v>25.23043558016705</v>
+      </c>
+      <c r="AL48" s="13">
+        <v>310.50025429153294</v>
+      </c>
+      <c r="AM48" s="13">
+        <v>234.22029085575608</v>
+      </c>
+      <c r="AN48" s="13">
+        <v>76.279963435776892</v>
+      </c>
+      <c r="AO48" s="13">
+        <v>51.250932411410922</v>
+      </c>
+      <c r="AP48" s="13">
+        <v>19.044234086787469</v>
+      </c>
+      <c r="AQ48" s="13">
+        <v>5.1380377000318127</v>
+      </c>
+      <c r="AR48" s="13">
+        <v>10.67537521311049</v>
+      </c>
+      <c r="AS48" s="13">
+        <v>5.7656830952278799</v>
+      </c>
+      <c r="AT48" s="13">
+        <v>8.1257374934314388</v>
+      </c>
+      <c r="AU48" s="13">
+        <v>178.81</v>
+      </c>
+      <c r="AV48" s="13">
+        <v>8.48</v>
+      </c>
+      <c r="AW48" s="13">
+        <v>8.86</v>
+      </c>
+      <c r="AX48" s="13">
+        <v>6.3</v>
+      </c>
+      <c r="AY48" s="13">
+        <v>89.89</v>
+      </c>
+      <c r="AZ48" s="13">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="BA48" s="13">
+        <v>15.89</v>
+      </c>
+      <c r="BB48" s="13">
+        <v>18.25</v>
+      </c>
+      <c r="BC48" s="2">
+        <v>33.154032040526182</v>
+      </c>
+      <c r="BD48" s="2">
+        <v>1.5723180566168671</v>
+      </c>
+      <c r="BE48" s="2">
+        <v>1.6427757053803589</v>
+      </c>
+      <c r="BF48" s="2">
+        <v>1.1681136505526255</v>
+      </c>
+      <c r="BG48" s="2">
+        <v>16.666942229869125</v>
+      </c>
+      <c r="BH48" s="2">
+        <v>0.94746996100379621</v>
+      </c>
+      <c r="BI48" s="2">
+        <v>2.9462422075049557</v>
+      </c>
+      <c r="BJ48" s="2">
+        <v>3.3838212892992718</v>
+      </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
         <v>35</v>
       </c>
@@ -5680,9 +10371,107 @@
       <c r="AC49" s="13">
         <v>6.69</v>
       </c>
-      <c r="AD49" s="34"/>
+      <c r="AD49" s="13">
+        <v>3.41634003398904</v>
+      </c>
+      <c r="AE49" s="13">
+        <v>187.9903871493008</v>
+      </c>
+      <c r="AF49" s="13">
+        <v>216.73156720102489</v>
+      </c>
+      <c r="AG49" s="13">
+        <v>71.623121994250596</v>
+      </c>
+      <c r="AH49" s="13">
+        <v>14.176188607664729</v>
+      </c>
+      <c r="AI49" s="13">
+        <v>47.013742205211898</v>
+      </c>
+      <c r="AJ49" s="13">
+        <v>16.053622502390841</v>
+      </c>
+      <c r="AK49" s="13">
+        <v>26.584086934921284</v>
+      </c>
+      <c r="AL49" s="13">
+        <v>392.18232944546429</v>
+      </c>
+      <c r="AM49" s="13">
+        <v>302.53087780294021</v>
+      </c>
+      <c r="AN49" s="13">
+        <v>89.651451642524009</v>
+      </c>
+      <c r="AO49" s="13">
+        <v>55.262960854834468</v>
+      </c>
+      <c r="AP49" s="13">
+        <v>18.262710126568894</v>
+      </c>
+      <c r="AQ49" s="13">
+        <v>3.6146933564573125</v>
+      </c>
+      <c r="AR49" s="13">
+        <v>11.987725778386833</v>
+      </c>
+      <c r="AS49" s="13">
+        <v>4.0934079118481064</v>
+      </c>
+      <c r="AT49" s="13">
+        <v>6.7785019719043689</v>
+      </c>
+      <c r="AU49" s="13">
+        <v>247.71</v>
+      </c>
+      <c r="AV49" s="13">
+        <v>14.97</v>
+      </c>
+      <c r="AW49" s="13">
+        <v>14.49</v>
+      </c>
+      <c r="AX49" s="13">
+        <v>1.33</v>
+      </c>
+      <c r="AY49" s="13">
+        <v>42.58</v>
+      </c>
+      <c r="AZ49" s="13">
+        <v>12.6</v>
+      </c>
+      <c r="BA49" s="13">
+        <v>41.87</v>
+      </c>
+      <c r="BB49" s="13">
+        <v>15.48</v>
+      </c>
+      <c r="BC49" s="2">
+        <v>46.044476786166449</v>
+      </c>
+      <c r="BD49" s="2">
+        <v>2.7826321807311443</v>
+      </c>
+      <c r="BE49" s="2">
+        <v>2.6934095055974798</v>
+      </c>
+      <c r="BF49" s="2">
+        <v>0.24722116234952718</v>
+      </c>
+      <c r="BG49" s="2">
+        <v>7.9147948066487723</v>
+      </c>
+      <c r="BH49" s="2">
+        <v>2.3420952222586786</v>
+      </c>
+      <c r="BI49" s="2">
+        <v>7.7828195996802263</v>
+      </c>
+      <c r="BJ49" s="2">
+        <v>2.8774312730606622</v>
+      </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
         <v>38</v>
       </c>
@@ -5770,9 +10559,107 @@
       <c r="AC50" s="13">
         <v>6.93</v>
       </c>
-      <c r="AD50" s="34"/>
+      <c r="AD50" s="13">
+        <v>2.8309048149226061</v>
+      </c>
+      <c r="AE50" s="13">
+        <v>100.0160566010435</v>
+      </c>
+      <c r="AF50" s="13">
+        <v>223.81808589962122</v>
+      </c>
+      <c r="AG50" s="13">
+        <v>64.005593141978224</v>
+      </c>
+      <c r="AH50" s="13">
+        <v>14.363444396205628</v>
+      </c>
+      <c r="AI50" s="13">
+        <v>42.54920097540785</v>
+      </c>
+      <c r="AJ50" s="13">
+        <v>13.657702070509133</v>
+      </c>
+      <c r="AK50" s="13">
+        <v>21.612413138308366</v>
+      </c>
+      <c r="AL50" s="13">
+        <v>380.00643962203048</v>
+      </c>
+      <c r="AM50" s="13">
+        <v>302.18712343780504</v>
+      </c>
+      <c r="AN50" s="13">
+        <v>77.819316184225357</v>
+      </c>
+      <c r="AO50" s="13">
+        <v>58.898498173409791</v>
+      </c>
+      <c r="AP50" s="13">
+        <v>16.84329170990911</v>
+      </c>
+      <c r="AQ50" s="13">
+        <v>3.7797897347455693</v>
+      </c>
+      <c r="AR50" s="13">
+        <v>11.196968403411525</v>
+      </c>
+      <c r="AS50" s="13">
+        <v>3.5940712173440077</v>
+      </c>
+      <c r="AT50" s="13">
+        <v>5.6873807611799769</v>
+      </c>
+      <c r="AU50" s="13">
+        <v>40</v>
+      </c>
+      <c r="AV50" s="13">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="AW50" s="13">
+        <v>3.34</v>
+      </c>
+      <c r="AX50" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY50" s="13">
+        <v>51.4</v>
+      </c>
+      <c r="AZ50" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA50" s="13">
+        <v>0</v>
+      </c>
+      <c r="BB50" s="13">
+        <v>0</v>
+      </c>
+      <c r="BC50" s="2">
+        <v>8.7955433127052043</v>
+      </c>
+      <c r="BD50" s="2">
+        <v>2.1175270525337782</v>
+      </c>
+      <c r="BE50" s="2">
+        <v>0.73442786661088444</v>
+      </c>
+      <c r="BF50" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG50" s="2">
+        <v>11.302273156826189</v>
+      </c>
+      <c r="BH50" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI50" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ50" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
         <v>42</v>
       </c>
@@ -5860,9 +10747,107 @@
       <c r="AC51" s="13">
         <v>6.6099999999999994</v>
       </c>
-      <c r="AD51" s="34"/>
+      <c r="AD51" s="13">
+        <v>4.1348888109806268</v>
+      </c>
+      <c r="AE51" s="13">
+        <v>247.756279592981</v>
+      </c>
+      <c r="AF51" s="13">
+        <v>157.65078526117833</v>
+      </c>
+      <c r="AG51" s="13">
+        <v>70.795720837451768</v>
+      </c>
+      <c r="AH51" s="13">
+        <v>16.678237381498715</v>
+      </c>
+      <c r="AI51" s="13">
+        <v>33.440264006334104</v>
+      </c>
+      <c r="AJ51" s="13">
+        <v>17.547167000901815</v>
+      </c>
+      <c r="AK51" s="13">
+        <v>17.355134211763094</v>
+      </c>
+      <c r="AL51" s="13">
+        <v>313.46730869912778</v>
+      </c>
+      <c r="AM51" s="13">
+        <v>245.12474348012879</v>
+      </c>
+      <c r="AN51" s="13">
+        <v>68.342565218999027</v>
+      </c>
+      <c r="AO51" s="13">
+        <v>50.292576254736254</v>
+      </c>
+      <c r="AP51" s="13">
+        <v>22.584722193599756</v>
+      </c>
+      <c r="AQ51" s="13">
+        <v>5.3205667444916305</v>
+      </c>
+      <c r="AR51" s="13">
+        <v>10.667863307695267</v>
+      </c>
+      <c r="AS51" s="13">
+        <v>5.5977661829303988</v>
+      </c>
+      <c r="AT51" s="13">
+        <v>5.5365053165467089</v>
+      </c>
+      <c r="AU51" s="13">
+        <v>175.55</v>
+      </c>
+      <c r="AV51" s="13">
+        <v>50.74</v>
+      </c>
+      <c r="AW51" s="13">
+        <v>111.88</v>
+      </c>
+      <c r="AX51" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY51" s="13">
+        <v>66.47</v>
+      </c>
+      <c r="AZ51" s="13">
+        <v>26.48</v>
+      </c>
+      <c r="BA51" s="13">
+        <v>53.55</v>
+      </c>
+      <c r="BB51" s="13">
+        <v>0</v>
+      </c>
+      <c r="BC51" s="2">
+        <v>43.289184939827543</v>
+      </c>
+      <c r="BD51" s="2">
+        <v>12.512066327808883</v>
+      </c>
+      <c r="BE51" s="2">
+        <v>27.588687046812332</v>
+      </c>
+      <c r="BF51" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG51" s="2">
+        <v>16.390954844490668</v>
+      </c>
+      <c r="BH51" s="2">
+        <v>6.5297500268107855</v>
+      </c>
+      <c r="BI51" s="2">
+        <v>13.204989196968187</v>
+      </c>
+      <c r="BJ51" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>45</v>
       </c>
@@ -5950,9 +10935,107 @@
       <c r="AC52" s="13">
         <v>6.9399999999999995</v>
       </c>
-      <c r="AD52" s="34"/>
+      <c r="AD52" s="13">
+        <v>3.5767174163121029</v>
+      </c>
+      <c r="AE52" s="13">
+        <v>206.56340769435263</v>
+      </c>
+      <c r="AF52" s="13">
+        <v>234.75159028049097</v>
+      </c>
+      <c r="AG52" s="13">
+        <v>146.88410958241715</v>
+      </c>
+      <c r="AH52" s="13">
+        <v>27.192906573892195</v>
+      </c>
+      <c r="AI52" s="13">
+        <v>65.285078210752914</v>
+      </c>
+      <c r="AJ52" s="13">
+        <v>15.989050488964574</v>
+      </c>
+      <c r="AK52" s="13">
+        <v>33.098611504988519</v>
+      </c>
+      <c r="AL52" s="13">
+        <v>523.20134664150635</v>
+      </c>
+      <c r="AM52" s="13">
+        <v>408.82860643680044</v>
+      </c>
+      <c r="AN52" s="13">
+        <v>114.37274020470601</v>
+      </c>
+      <c r="AO52" s="13">
+        <v>44.868307734181158</v>
+      </c>
+      <c r="AP52" s="13">
+        <v>28.074107707345227</v>
+      </c>
+      <c r="AQ52" s="13">
+        <v>5.1974076038692942</v>
+      </c>
+      <c r="AR52" s="13">
+        <v>12.478002709630976</v>
+      </c>
+      <c r="AS52" s="13">
+        <v>3.0560033133707036</v>
+      </c>
+      <c r="AT52" s="13">
+        <v>6.3261709316026353</v>
+      </c>
+      <c r="AU52" s="13">
+        <v>153.79</v>
+      </c>
+      <c r="AV52" s="13">
+        <v>26.93</v>
+      </c>
+      <c r="AW52" s="13">
+        <v>87.18</v>
+      </c>
+      <c r="AX52" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY52" s="13">
+        <v>55.41</v>
+      </c>
+      <c r="AZ52" s="13">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="BA52" s="13">
+        <v>128.68</v>
+      </c>
+      <c r="BB52" s="13">
+        <v>30.78</v>
+      </c>
+      <c r="BC52" s="2">
+        <v>38.057196901313716</v>
+      </c>
+      <c r="BD52" s="2">
+        <v>6.6641544479639681</v>
+      </c>
+      <c r="BE52" s="2">
+        <v>21.573746185425129</v>
+      </c>
+      <c r="BF52" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG52" s="2">
+        <v>13.71187515639374</v>
+      </c>
+      <c r="BH52" s="2">
+        <v>8.2157418370740327</v>
+      </c>
+      <c r="BI52" s="2">
+        <v>31.843423481767676</v>
+      </c>
+      <c r="BJ52" s="2">
+        <v>7.6168835465403246</v>
+      </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
         <v>30</v>
       </c>
@@ -6040,9 +11123,107 @@
       <c r="AC53" s="13">
         <v>6.87</v>
       </c>
-      <c r="AD53" s="34"/>
+      <c r="AD53" s="13">
+        <v>3.5348093450221207</v>
+      </c>
+      <c r="AE53" s="13">
+        <v>205.51438984138355</v>
+      </c>
+      <c r="AF53" s="13">
+        <v>152.4017195027252</v>
+      </c>
+      <c r="AG53" s="13">
+        <v>89.544363684590238</v>
+      </c>
+      <c r="AH53" s="13">
+        <v>18.370244623830828</v>
+      </c>
+      <c r="AI53" s="13">
+        <v>57.485023954876269</v>
+      </c>
+      <c r="AJ53" s="13">
+        <v>20.208595001004937</v>
+      </c>
+      <c r="AK53" s="13">
+        <v>38.759216738369027</v>
+      </c>
+      <c r="AL53" s="13">
+        <v>376.76916350539653</v>
+      </c>
+      <c r="AM53" s="13">
+        <v>260.31632781114632</v>
+      </c>
+      <c r="AN53" s="13">
+        <v>116.45283569425021</v>
+      </c>
+      <c r="AO53" s="13">
+        <v>40.449626525909231</v>
+      </c>
+      <c r="AP53" s="13">
+        <v>23.766372717842575</v>
+      </c>
+      <c r="AQ53" s="13">
+        <v>4.8757293332918179</v>
+      </c>
+      <c r="AR53" s="13">
+        <v>15.257359020585797</v>
+      </c>
+      <c r="AS53" s="13">
+        <v>5.3636541836353029</v>
+      </c>
+      <c r="AT53" s="13">
+        <v>10.287258218735269</v>
+      </c>
+      <c r="AU53" s="13">
+        <v>121.64</v>
+      </c>
+      <c r="AV53" s="13">
+        <v>1.59</v>
+      </c>
+      <c r="AW53" s="13">
+        <v>17.46</v>
+      </c>
+      <c r="AX53" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY53" s="13">
+        <v>87.6</v>
+      </c>
+      <c r="AZ53" s="13">
+        <v>14.08</v>
+      </c>
+      <c r="BA53" s="13">
+        <v>132.94999999999999</v>
+      </c>
+      <c r="BB53" s="13">
+        <v>29.61</v>
+      </c>
+      <c r="BC53" s="2">
+        <v>30.473431844921468</v>
+      </c>
+      <c r="BD53" s="2">
+        <v>0.39832914036028555</v>
+      </c>
+      <c r="BE53" s="2">
+        <v>4.3741048998054</v>
+      </c>
+      <c r="BF53" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG53" s="2">
+        <v>21.945680940604412</v>
+      </c>
+      <c r="BH53" s="2">
+        <v>3.5273423246998874</v>
+      </c>
+      <c r="BI53" s="2">
+        <v>33.306829692389911</v>
+      </c>
+      <c r="BJ53" s="2">
+        <v>7.4179407836906019</v>
+      </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>46</v>
       </c>
@@ -6130,9 +11311,107 @@
       <c r="AC54" s="13">
         <v>6.6</v>
       </c>
-      <c r="AD54" s="34"/>
+      <c r="AD54" s="13">
+        <v>2.8562339686696196</v>
+      </c>
+      <c r="AE54" s="13">
+        <v>147.87847896667418</v>
+      </c>
+      <c r="AF54" s="13">
+        <v>132.9706655833902</v>
+      </c>
+      <c r="AG54" s="13">
+        <v>74.752618752894932</v>
+      </c>
+      <c r="AH54" s="13">
+        <v>21.559235413182456</v>
+      </c>
+      <c r="AI54" s="13">
+        <v>54.224204516662006</v>
+      </c>
+      <c r="AJ54" s="13">
+        <v>20.352458632748068</v>
+      </c>
+      <c r="AK54" s="13">
+        <v>37.042333513762024</v>
+      </c>
+      <c r="AL54" s="13">
+        <v>340.90151641263964</v>
+      </c>
+      <c r="AM54" s="13">
+        <v>229.28251974946761</v>
+      </c>
+      <c r="AN54" s="13">
+        <v>111.61899666317211</v>
+      </c>
+      <c r="AO54" s="13">
+        <v>39.005595217839293</v>
+      </c>
+      <c r="AP54" s="13">
+        <v>21.927922040221034</v>
+      </c>
+      <c r="AQ54" s="13">
+        <v>6.3241829018696327</v>
+      </c>
+      <c r="AR54" s="13">
+        <v>15.906120068714229</v>
+      </c>
+      <c r="AS54" s="13">
+        <v>5.9701871810135065</v>
+      </c>
+      <c r="AT54" s="13">
+        <v>10.865992590342318</v>
+      </c>
+      <c r="AU54" s="13">
+        <v>252.96</v>
+      </c>
+      <c r="AV54" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW54" s="13">
+        <v>13.86</v>
+      </c>
+      <c r="AX54" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY54" s="13">
+        <v>93.68</v>
+      </c>
+      <c r="AZ54" s="13">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="BA54" s="13">
+        <v>15.39</v>
+      </c>
+      <c r="BB54" s="13">
+        <v>17.02</v>
+      </c>
+      <c r="BC54" s="2">
+        <v>50.846020827992724</v>
+      </c>
+      <c r="BD54" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE54" s="2">
+        <v>2.785918124114402</v>
+      </c>
+      <c r="BF54" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG54" s="2">
+        <v>18.830072861979598</v>
+      </c>
+      <c r="BH54" s="2">
+        <v>0.88240841016321969</v>
+      </c>
+      <c r="BI54" s="2">
+        <v>3.0934545404127451</v>
+      </c>
+      <c r="BJ54" s="2">
+        <v>3.4210913760769928</v>
+      </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
         <v>22</v>
       </c>
@@ -6220,9 +11499,107 @@
       <c r="AC55" s="13">
         <v>6.7566666666666668</v>
       </c>
-      <c r="AD55" s="34"/>
+      <c r="AD55" s="13">
+        <v>2.3286617835503525</v>
+      </c>
+      <c r="AE55" s="13">
+        <v>169.06167916027587</v>
+      </c>
+      <c r="AF55" s="13">
+        <v>102.20796767179145</v>
+      </c>
+      <c r="AG55" s="13">
+        <v>46.732897419067442</v>
+      </c>
+      <c r="AH55" s="13">
+        <v>13.570751906593342</v>
+      </c>
+      <c r="AI55" s="13">
+        <v>26.411629993723938</v>
+      </c>
+      <c r="AJ55" s="13">
+        <v>17.981988040795329</v>
+      </c>
+      <c r="AK55" s="13">
+        <v>14.381692578662109</v>
+      </c>
+      <c r="AL55" s="13">
+        <v>221.28692761063357</v>
+      </c>
+      <c r="AM55" s="13">
+        <v>162.51161699745222</v>
+      </c>
+      <c r="AN55" s="13">
+        <v>58.775310613181382</v>
+      </c>
+      <c r="AO55" s="13">
+        <v>46.187982623009681</v>
+      </c>
+      <c r="AP55" s="13">
+        <v>21.118688719514658</v>
+      </c>
+      <c r="AQ55" s="13">
+        <v>6.1326496115811322</v>
+      </c>
+      <c r="AR55" s="13">
+        <v>11.935467801422343</v>
+      </c>
+      <c r="AS55" s="13">
+        <v>8.1260959402155102</v>
+      </c>
+      <c r="AT55" s="13">
+        <v>6.4991153042566898</v>
+      </c>
+      <c r="AU55" s="13">
+        <v>192.97</v>
+      </c>
+      <c r="AV55" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="AW55" s="13">
+        <v>7.03</v>
+      </c>
+      <c r="AX55" s="13">
+        <v>2.72</v>
+      </c>
+      <c r="AY55" s="13">
+        <v>59.81</v>
+      </c>
+      <c r="AZ55" s="13">
+        <v>4.54</v>
+      </c>
+      <c r="BA55" s="13">
+        <v>7.91</v>
+      </c>
+      <c r="BB55" s="13">
+        <v>5.07</v>
+      </c>
+      <c r="BC55" s="2">
+        <v>43.854404376474662</v>
+      </c>
+      <c r="BD55" s="2">
+        <v>0.18180817485194448</v>
+      </c>
+      <c r="BE55" s="2">
+        <v>1.5976393365114623</v>
+      </c>
+      <c r="BF55" s="2">
+        <v>0.61814779449661128</v>
+      </c>
+      <c r="BG55" s="2">
+        <v>13.592433672368498</v>
+      </c>
+      <c r="BH55" s="2">
+        <v>1.0317613922847848</v>
+      </c>
+      <c r="BI55" s="2">
+        <v>1.797628328848601</v>
+      </c>
+      <c r="BJ55" s="2">
+        <v>1.1522093081241982</v>
+      </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
         <v>33</v>
       </c>
@@ -6310,9 +11687,107 @@
       <c r="AC56" s="13">
         <v>6.7233333333333336</v>
       </c>
-      <c r="AD56" s="34"/>
+      <c r="AD56" s="13">
+        <v>2.8095581878081783</v>
+      </c>
+      <c r="AE56" s="13">
+        <v>163.7400375885114</v>
+      </c>
+      <c r="AF56" s="13">
+        <v>342.21545051452892</v>
+      </c>
+      <c r="AG56" s="13">
+        <v>94.922994310278511</v>
+      </c>
+      <c r="AH56" s="13">
+        <v>20.159433608119578</v>
+      </c>
+      <c r="AI56" s="13">
+        <v>33.520547137477685</v>
+      </c>
+      <c r="AJ56" s="13">
+        <v>28.426357936567261</v>
+      </c>
+      <c r="AK56" s="13">
+        <v>26.676194592818636</v>
+      </c>
+      <c r="AL56" s="13">
+        <v>545.92097809979066</v>
+      </c>
+      <c r="AM56" s="13">
+        <v>457.29787843292706</v>
+      </c>
+      <c r="AN56" s="13">
+        <v>88.623099666863567</v>
+      </c>
+      <c r="AO56" s="13">
+        <v>62.685894890079545</v>
+      </c>
+      <c r="AP56" s="13">
+        <v>17.387680290411414</v>
+      </c>
+      <c r="AQ56" s="13">
+        <v>3.6927384029625201</v>
+      </c>
+      <c r="AR56" s="13">
+        <v>6.1401830085654545</v>
+      </c>
+      <c r="AS56" s="13">
+        <v>5.2070462716988892</v>
+      </c>
+      <c r="AT56" s="13">
+        <v>4.8864571362821687</v>
+      </c>
+      <c r="AU56" s="13">
+        <v>287.38</v>
+      </c>
+      <c r="AV56" s="13">
+        <v>0.67</v>
+      </c>
+      <c r="AW56" s="13">
+        <v>27.17</v>
+      </c>
+      <c r="AX56" s="13">
+        <v>1.17</v>
+      </c>
+      <c r="AY56" s="13">
+        <v>83.67</v>
+      </c>
+      <c r="AZ56" s="13">
+        <v>24.83</v>
+      </c>
+      <c r="BA56" s="13">
+        <v>107.11</v>
+      </c>
+      <c r="BB56" s="13">
+        <v>32.86</v>
+      </c>
+      <c r="BC56" s="2">
+        <v>56.480825466108904</v>
+      </c>
+      <c r="BD56" s="2">
+        <v>0.13167984223777915</v>
+      </c>
+      <c r="BE56" s="2">
+        <v>5.339912408358896</v>
+      </c>
+      <c r="BF56" s="2">
+        <v>0.22994838122119643</v>
+      </c>
+      <c r="BG56" s="2">
+        <v>16.44425731348505</v>
+      </c>
+      <c r="BH56" s="2">
+        <v>4.8800156459165009</v>
+      </c>
+      <c r="BI56" s="2">
+        <v>21.051086421027648</v>
+      </c>
+      <c r="BJ56" s="2">
+        <v>6.4582083819901834</v>
+      </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
         <v>47</v>
       </c>
@@ -6400,7 +11875,105 @@
       <c r="AC57" s="13">
         <v>6.9200000000000008</v>
       </c>
-      <c r="AD57" s="34"/>
+      <c r="AD57" s="13">
+        <v>2.9896810432926313</v>
+      </c>
+      <c r="AE57" s="13">
+        <v>195.64215850645314</v>
+      </c>
+      <c r="AF57" s="13">
+        <v>231.98535091572631</v>
+      </c>
+      <c r="AG57" s="13">
+        <v>92.027941876783245</v>
+      </c>
+      <c r="AH57" s="13">
+        <v>32.636912774547795</v>
+      </c>
+      <c r="AI57" s="13">
+        <v>50.650664358504081</v>
+      </c>
+      <c r="AJ57" s="13">
+        <v>19.604717048526417</v>
+      </c>
+      <c r="AK57" s="13">
+        <v>33.964709599719036</v>
+      </c>
+      <c r="AL57" s="13">
+        <v>460.87029657380674</v>
+      </c>
+      <c r="AM57" s="13">
+        <v>356.6502055670573</v>
+      </c>
+      <c r="AN57" s="13">
+        <v>104.22009100674954</v>
+      </c>
+      <c r="AO57" s="13">
+        <v>50.336364187570219</v>
+      </c>
+      <c r="AP57" s="13">
+        <v>19.968295323203868</v>
+      </c>
+      <c r="AQ57" s="13">
+        <v>7.081583043467222</v>
+      </c>
+      <c r="AR57" s="13">
+        <v>10.9902210524415</v>
+      </c>
+      <c r="AS57" s="13">
+        <v>4.2538469487557418</v>
+      </c>
+      <c r="AT57" s="13">
+        <v>7.3696894445614829</v>
+      </c>
+      <c r="AU57" s="13">
+        <v>162.43</v>
+      </c>
+      <c r="AV57" s="13">
+        <v>0.85</v>
+      </c>
+      <c r="AW57" s="13">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="AX57" s="13">
+        <v>8.11</v>
+      </c>
+      <c r="AY57" s="13">
+        <v>46.11</v>
+      </c>
+      <c r="AZ57" s="13">
+        <v>5.62</v>
+      </c>
+      <c r="BA57" s="13">
+        <v>9.58</v>
+      </c>
+      <c r="BB57" s="13">
+        <v>10.63</v>
+      </c>
+      <c r="BC57" s="2">
+        <v>31.795540833711268</v>
+      </c>
+      <c r="BD57" s="2">
+        <v>0.16638681098722263</v>
+      </c>
+      <c r="BE57" s="2">
+        <v>1.7871900991921683</v>
+      </c>
+      <c r="BF57" s="2">
+        <v>1.5875259260075005</v>
+      </c>
+      <c r="BG57" s="2">
+        <v>9.0259951230833355</v>
+      </c>
+      <c r="BH57" s="2">
+        <v>1.1001104444096368</v>
+      </c>
+      <c r="BI57" s="2">
+        <v>1.8752772344206974</v>
+      </c>
+      <c r="BJ57" s="2">
+        <v>2.0808138832872669</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
